--- a/Docs/Other/scratchpad.xlsx
+++ b/Docs/Other/scratchpad.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\JCAP\Docs\Other\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sandbox" sheetId="1" r:id="rId4"/>
-    <sheet name="LONG-to-LONG (Bad) - Table 1-1" sheetId="2" r:id="rId5"/>
-    <sheet name="LONG-to-LONG (Good) - Table 1-1" sheetId="3" r:id="rId6"/>
-    <sheet name="Buffer-to-buffer - Table 1-1" sheetId="4" r:id="rId7"/>
+    <sheet name="Sandbox" sheetId="1" r:id="rId1"/>
+    <sheet name="LONG-to-LONG (Bad) - Table 1-1" sheetId="2" r:id="rId2"/>
+    <sheet name="LONG-to-LONG (Good) - Table 1-1" sheetId="3" r:id="rId3"/>
+    <sheet name="Buffer-to-buffer - Table 1-1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="111">
   <si>
     <t>PASM Line</t>
   </si>
@@ -352,35 +360,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -391,20 +386,20 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1271,325 +1266,182 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="106">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="105">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="17" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="17" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="17" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="17" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="16" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="14" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1599,42 +1451,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff70ad47"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffc5deb5"/>
-      <rgbColor rgb="fff7caac"/>
-      <rgbColor rgb="ffbdd6ee"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffcfcfcf"/>
-      <rgbColor rgb="ff92d050"/>
-      <rgbColor rgb="ff5b9bd5"/>
-      <rgbColor rgb="ff8eaadb"/>
-      <rgbColor rgb="ffffd965"/>
-      <rgbColor rgb="ff0c0c0c"/>
-      <rgbColor rgb="ffb7d6a3"/>
-      <rgbColor rgb="fff6be98"/>
-      <rgbColor rgb="ffadcdea"/>
-      <rgbColor rgb="ffffdf7f"/>
-      <rgbColor rgb="ffaa96a6"/>
-      <rgbColor rgb="ffff2600"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFC5DEB5"/>
+      <rgbColor rgb="FFF7CAAC"/>
+      <rgbColor rgb="FFBDD6EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCFCFCF"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF8EAADB"/>
+      <rgbColor rgb="FFFFD965"/>
+      <rgbColor rgb="FF0C0C0C"/>
+      <rgbColor rgb="FFB7D6A3"/>
+      <rgbColor rgb="FFF6BE98"/>
+      <rgbColor rgb="FFADCDEA"/>
+      <rgbColor rgb="FFFFDF7F"/>
+      <rgbColor rgb="FFAA96A6"/>
+      <rgbColor rgb="FFFF2600"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1648,7 +1543,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>94101</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Shape 2"/>
         <xdr:cNvSpPr/>
@@ -1677,7 +1572,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1687,7 +1582,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1889,7 +1784,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1908,7 +1803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1938,7 +1833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1964,7 +1859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1990,7 +1885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2016,7 +1911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2042,7 +1937,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2068,7 +1963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2094,7 +1989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2120,7 +2015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2146,7 +2041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2159,9 +2054,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2178,7 +2079,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2197,7 +2098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2223,7 +2124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2249,7 +2150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2275,7 +2176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2301,7 +2202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2327,7 +2228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2353,7 +2254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2379,7 +2280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2405,7 +2306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2431,7 +2332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2444,9 +2345,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2460,7 +2367,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2479,7 +2386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2509,7 +2416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2535,7 +2442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2561,7 +2468,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2587,7 +2494,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2613,7 +2520,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2639,7 +2546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2665,7 +2572,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2691,7 +2598,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2717,7 +2624,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2730,82 +2637,60 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.17188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85156" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85156" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85156" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85156" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85156" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85156" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.85156" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85156" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85156" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85156" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85156" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85156" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.85156" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.85156" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.85156" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.85156" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.85156" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.85156" style="1" customWidth="1"/>
-    <col min="33" max="33" width="8.85156" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.85156" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.85156" style="1" customWidth="1"/>
-    <col min="36" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" t="s" s="7">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="8"/>
       <c r="J1" s="5"/>
-      <c r="K1" t="s" s="7">
+      <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="6"/>
@@ -2833,20 +2718,20 @@
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>162</v>
       </c>
       <c r="B2" s="10">
         <v>249</v>
       </c>
-      <c r="C2" t="s" s="11">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="12">
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="13">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="14"/>
@@ -2884,17 +2769,17 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" ht="15.5" customHeight="1">
+    <row r="3" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>163</v>
       </c>
       <c r="B3" s="10">
         <v>257</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="20">
+      <c r="D3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="21">
@@ -2933,17 +2818,17 @@
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>164</v>
       </c>
       <c r="B4" s="10">
         <v>256</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="20">
+      <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="21">
@@ -2982,17 +2867,17 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>165</v>
       </c>
       <c r="B5" s="10">
         <v>256</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="25">
+      <c r="D5" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="26">
@@ -3008,13 +2893,13 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" t="s" s="27">
+      <c r="N5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" t="s" s="27">
+      <c r="R5" s="27" t="s">
         <v>15</v>
       </c>
       <c r="S5" s="6"/>
@@ -3035,14 +2920,14 @@
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
     </row>
-    <row r="6" ht="15.5" customHeight="1">
+    <row r="6" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>166</v>
       </c>
       <c r="B6" s="10">
         <v>256</v>
       </c>
-      <c r="C6" t="s" s="28">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="29"/>
@@ -3057,7 +2942,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" t="s" s="27">
+      <c r="N6" s="27" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="22">
@@ -3065,7 +2950,7 @@
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" t="s" s="27">
+      <c r="R6" s="27" t="s">
         <v>17</v>
       </c>
       <c r="S6" s="22">
@@ -3088,14 +2973,14 @@
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>167</v>
       </c>
       <c r="B7" s="10">
         <v>256</v>
       </c>
-      <c r="C7" t="s" s="28">
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="30"/>
@@ -3110,7 +2995,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" t="s" s="27">
+      <c r="N7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="O7" s="22">
@@ -3118,7 +3003,7 @@
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-      <c r="R7" t="s" s="27">
+      <c r="R7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="S7" s="22">
@@ -3141,14 +3026,14 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>168</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
       </c>
-      <c r="C8" t="s" s="28">
+      <c r="C8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="30"/>
@@ -3163,7 +3048,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" t="s" s="27">
+      <c r="N8" s="27" t="s">
         <v>19</v>
       </c>
       <c r="O8" s="22">
@@ -3190,14 +3075,14 @@
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>169</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
       </c>
-      <c r="C9" t="s" s="28">
+      <c r="C9" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="30"/>
@@ -3216,7 +3101,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" t="s" s="27">
+      <c r="R9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="S9" s="6"/>
@@ -3237,14 +3122,14 @@
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>170</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C10" t="s" s="28">
+      <c r="C10" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="30"/>
@@ -3259,7 +3144,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" t="s" s="27">
+      <c r="N10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="6"/>
@@ -3284,7 +3169,7 @@
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="24"/>
@@ -3323,14 +3208,14 @@
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="5"/>
@@ -3368,24 +3253,24 @@
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" ht="15.5" customHeight="1">
-      <c r="A13" t="s" s="32">
+    <row r="13" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="10">
         <v>505</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E13" t="s" s="13">
+      <c r="E13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" t="s" s="33">
+      <c r="G13" s="33" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="6"/>
@@ -3417,17 +3302,17 @@
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="32">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="10">
         <v>513</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s" s="20">
+      <c r="D14" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="21">
@@ -3468,17 +3353,17 @@
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="32">
+    <row r="15" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="10">
         <v>512</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s" s="25">
+      <c r="D15" s="25" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="26">
@@ -3519,14 +3404,14 @@
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" ht="15.5" customHeight="1">
-      <c r="A16" t="s" s="32">
+    <row r="16" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="10">
         <v>512</v>
       </c>
-      <c r="C16" t="s" s="28">
+      <c r="C16" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="29"/>
@@ -3566,14 +3451,14 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="32">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="10">
         <v>512</v>
       </c>
-      <c r="C17" t="s" s="28">
+      <c r="C17" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="30"/>
@@ -3613,14 +3498,14 @@
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="32">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="10">
         <v>0</v>
       </c>
-      <c r="C18" t="s" s="28">
+      <c r="C18" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="30"/>
@@ -3660,14 +3545,14 @@
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="32">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="10">
         <v>0</v>
       </c>
-      <c r="C19" t="s" s="28">
+      <c r="C19" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="30"/>
@@ -3707,7 +3592,7 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="24"/>
@@ -3748,7 +3633,7 @@
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3785,7 +3670,7 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -3822,7 +3707,7 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3859,7 +3744,7 @@
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3896,7 +3781,7 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3933,10 +3818,10 @@
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" t="s" s="38">
+      <c r="C26" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="39">
@@ -4012,42 +3897,42 @@
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" t="s" s="38">
+      <c r="C27" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D27" t="s" s="41">
+      <c r="D27" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" t="s" s="41">
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" t="s" s="41">
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" t="s" s="41">
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" t="s" s="41">
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
       <c r="X27" s="40"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -4061,70 +3946,70 @@
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" t="s" s="38">
+      <c r="C28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="41">
         <v>3</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="41">
         <v>2</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="41">
         <v>1</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="41">
         <v>0</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="42">
         <v>3</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="42">
         <v>2</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="42">
         <v>1</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="42">
         <v>0</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L28" s="41">
         <v>3</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="41">
         <v>2</v>
       </c>
-      <c r="N28" s="43">
+      <c r="N28" s="41">
         <v>1</v>
       </c>
-      <c r="O28" s="43">
+      <c r="O28" s="41">
         <v>0</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="42">
         <v>3</v>
       </c>
-      <c r="Q28" s="44">
+      <c r="Q28" s="42">
         <v>2</v>
       </c>
-      <c r="R28" s="44">
+      <c r="R28" s="42">
         <v>1</v>
       </c>
-      <c r="S28" s="44">
+      <c r="S28" s="42">
         <v>0</v>
       </c>
-      <c r="T28" s="43">
+      <c r="T28" s="41">
         <v>3</v>
       </c>
-      <c r="U28" s="43">
+      <c r="U28" s="41">
         <v>2</v>
       </c>
-      <c r="V28" s="43">
+      <c r="V28" s="41">
         <v>1</v>
       </c>
-      <c r="W28" s="43">
+      <c r="W28" s="41">
         <v>0</v>
       </c>
       <c r="X28" s="40"/>
@@ -4140,30 +4025,30 @@
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
@@ -4177,18 +4062,18 @@
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" t="s" s="46">
+      <c r="D30" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="45">
         <v>34</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -4218,27 +4103,27 @@
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="49"/>
-      <c r="D31" t="s" s="50">
+      <c r="C31" s="47"/>
+      <c r="D31" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E31" t="s" s="51">
+      <c r="E31" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F31" t="s" s="51">
+      <c r="F31" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G31" t="s" s="52">
+      <c r="G31" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="53"/>
-      <c r="I31" t="s" s="27">
+      <c r="H31" s="51"/>
+      <c r="I31" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J31" t="s" s="27">
+      <c r="J31" s="27" t="s">
         <v>49</v>
       </c>
       <c r="K31" s="6"/>
@@ -4267,25 +4152,25 @@
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="54">
+      <c r="C32" s="47"/>
+      <c r="D32" s="52">
         <v>8</v>
       </c>
-      <c r="E32" s="55">
-        <f>($E$30+D32-1)</f>
+      <c r="E32" s="53">
+        <f t="shared" ref="E32:E39" si="0">($E$30+D32-1)</f>
         <v>41</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="53">
         <v>10</v>
       </c>
-      <c r="G32" s="56">
-        <f>MOD(E32:E32,4)</f>
+      <c r="G32" s="54">
+        <f t="shared" ref="G32:G39" si="1">MOD(E32:E32,4)</f>
         <v>1</v>
       </c>
-      <c r="H32" s="53"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -4314,25 +4199,25 @@
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="54">
+      <c r="C33" s="47"/>
+      <c r="D33" s="52">
         <v>7</v>
       </c>
-      <c r="E33" s="55">
-        <f>($E$30+D33-1)</f>
+      <c r="E33" s="53">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="53">
         <v>10</v>
       </c>
-      <c r="G33" s="56">
-        <f>MOD(E33:E33,4)</f>
+      <c r="G33" s="54">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="53"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -4361,25 +4246,25 @@
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="54">
+      <c r="C34" s="47"/>
+      <c r="D34" s="52">
         <v>6</v>
       </c>
-      <c r="E34" s="55">
-        <f>($E$30+D34-1)</f>
+      <c r="E34" s="53">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="53">
         <v>9</v>
       </c>
-      <c r="G34" s="56">
-        <f>MOD(E34:E34,4)</f>
+      <c r="G34" s="54">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H34" s="53"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -4408,25 +4293,25 @@
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="54">
+      <c r="C35" s="47"/>
+      <c r="D35" s="52">
         <v>5</v>
       </c>
-      <c r="E35" s="55">
-        <f>($E$30+D35-1)</f>
+      <c r="E35" s="53">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="53">
         <v>9</v>
       </c>
-      <c r="G35" s="56">
-        <f>MOD(E35:E35,4)</f>
+      <c r="G35" s="54">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H35" s="53"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -4455,25 +4340,25 @@
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="54">
+      <c r="C36" s="47"/>
+      <c r="D36" s="52">
         <v>4</v>
       </c>
-      <c r="E36" s="55">
-        <f>($E$30+D36-1)</f>
+      <c r="E36" s="53">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="F36" s="55">
+      <c r="F36" s="53">
         <v>9</v>
       </c>
-      <c r="G36" s="56">
-        <f>MOD(E36:E36,4)</f>
+      <c r="G36" s="54">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H36" s="53"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -4502,25 +4387,25 @@
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="54">
+      <c r="C37" s="47"/>
+      <c r="D37" s="52">
         <v>3</v>
       </c>
-      <c r="E37" s="55">
-        <f>($E$30+D37-1)</f>
+      <c r="E37" s="53">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F37" s="55">
+      <c r="F37" s="53">
         <v>9</v>
       </c>
-      <c r="G37" s="56">
-        <f>MOD(E37:E37,4)</f>
+      <c r="G37" s="54">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="53"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -4549,25 +4434,25 @@
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="54">
+      <c r="C38" s="47"/>
+      <c r="D38" s="52">
         <v>2</v>
       </c>
-      <c r="E38" s="55">
-        <f>($E$30+D38-1)</f>
+      <c r="E38" s="53">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F38" s="55">
+      <c r="F38" s="53">
         <v>8</v>
       </c>
-      <c r="G38" s="56">
-        <f>MOD(E38:E38,4)</f>
+      <c r="G38" s="54">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H38" s="53"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -4596,25 +4481,25 @@
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="54">
+      <c r="C39" s="47"/>
+      <c r="D39" s="52">
         <v>1</v>
       </c>
-      <c r="E39" s="55">
-        <f>($E$30+D39-1)</f>
+      <c r="E39" s="53">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F39" s="55">
+      <c r="F39" s="53">
         <v>8</v>
       </c>
-      <c r="G39" s="56">
-        <f>MOD(E39:E39,4)</f>
+      <c r="G39" s="54">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H39" s="53"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -4643,14 +4528,14 @@
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -4680,7 +4565,7 @@
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -4717,7 +4602,7 @@
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4754,311 +4639,311 @@
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="58"/>
-      <c r="D43" t="s" s="59">
+      <c r="C43" s="56"/>
+      <c r="D43" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="61"/>
-      <c r="L43" t="s" s="59">
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="61"/>
-      <c r="T43" t="s" s="59">
+      <c r="M43" s="101"/>
+      <c r="N43" s="101"/>
+      <c r="O43" s="101"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="101"/>
+      <c r="R43" s="101"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="U43" s="60"/>
-      <c r="V43" s="60"/>
-      <c r="W43" s="60"/>
-      <c r="X43" s="60"/>
-      <c r="Y43" s="60"/>
-      <c r="Z43" s="60"/>
-      <c r="AA43" s="61"/>
-      <c r="AB43" t="s" s="59">
+      <c r="U43" s="101"/>
+      <c r="V43" s="101"/>
+      <c r="W43" s="101"/>
+      <c r="X43" s="101"/>
+      <c r="Y43" s="101"/>
+      <c r="Z43" s="101"/>
+      <c r="AA43" s="102"/>
+      <c r="AB43" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="AC43" s="60"/>
-      <c r="AD43" s="60"/>
-      <c r="AE43" s="60"/>
-      <c r="AF43" s="60"/>
-      <c r="AG43" s="60"/>
-      <c r="AH43" s="60"/>
-      <c r="AI43" s="61"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+      <c r="AC43" s="101"/>
+      <c r="AD43" s="101"/>
+      <c r="AE43" s="101"/>
+      <c r="AF43" s="101"/>
+      <c r="AG43" s="101"/>
+      <c r="AH43" s="101"/>
+      <c r="AI43" s="102"/>
+    </row>
+    <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="58"/>
-      <c r="D44" t="s" s="62">
+      <c r="C44" s="56"/>
+      <c r="D44" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
-      <c r="H44" t="s" s="62">
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="64"/>
-      <c r="L44" t="s" s="62">
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="64"/>
-      <c r="P44" t="s" s="62">
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="64"/>
-      <c r="T44" t="s" s="62">
+      <c r="Q44" s="98"/>
+      <c r="R44" s="98"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="U44" s="63"/>
-      <c r="V44" s="63"/>
-      <c r="W44" s="64"/>
-      <c r="X44" t="s" s="62">
+      <c r="U44" s="98"/>
+      <c r="V44" s="98"/>
+      <c r="W44" s="99"/>
+      <c r="X44" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="Y44" s="63"/>
-      <c r="Z44" s="63"/>
-      <c r="AA44" s="64"/>
-      <c r="AB44" t="s" s="62">
+      <c r="Y44" s="98"/>
+      <c r="Z44" s="98"/>
+      <c r="AA44" s="99"/>
+      <c r="AB44" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="AC44" s="63"/>
-      <c r="AD44" s="63"/>
-      <c r="AE44" s="64"/>
-      <c r="AF44" t="s" s="62">
+      <c r="AC44" s="98"/>
+      <c r="AD44" s="98"/>
+      <c r="AE44" s="99"/>
+      <c r="AF44" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="AG44" s="63"/>
-      <c r="AH44" s="63"/>
-      <c r="AI44" s="64"/>
-    </row>
-    <row r="45" ht="15" customHeight="1">
+      <c r="AG44" s="98"/>
+      <c r="AH44" s="98"/>
+      <c r="AI44" s="99"/>
+    </row>
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" t="s" s="38">
+      <c r="C45" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="65">
+      <c r="D45" s="57">
         <v>0</v>
       </c>
-      <c r="E45" s="65">
+      <c r="E45" s="57">
         <v>1</v>
       </c>
-      <c r="F45" s="65">
+      <c r="F45" s="57">
         <v>2</v>
       </c>
-      <c r="G45" s="65">
+      <c r="G45" s="57">
         <v>3</v>
       </c>
-      <c r="H45" s="66">
+      <c r="H45" s="58">
         <v>4</v>
       </c>
-      <c r="I45" s="66">
+      <c r="I45" s="58">
         <v>5</v>
       </c>
-      <c r="J45" s="66">
+      <c r="J45" s="58">
         <v>6</v>
       </c>
-      <c r="K45" s="66">
+      <c r="K45" s="58">
         <v>7</v>
       </c>
-      <c r="L45" s="65">
+      <c r="L45" s="57">
         <v>0</v>
       </c>
-      <c r="M45" s="65">
+      <c r="M45" s="57">
         <v>1</v>
       </c>
-      <c r="N45" s="65">
+      <c r="N45" s="57">
         <v>2</v>
       </c>
-      <c r="O45" s="65">
+      <c r="O45" s="57">
         <v>3</v>
       </c>
-      <c r="P45" s="66">
+      <c r="P45" s="58">
         <v>4</v>
       </c>
-      <c r="Q45" s="66">
+      <c r="Q45" s="58">
         <v>5</v>
       </c>
-      <c r="R45" s="66">
+      <c r="R45" s="58">
         <v>6</v>
       </c>
-      <c r="S45" s="66">
+      <c r="S45" s="58">
         <v>7</v>
       </c>
-      <c r="T45" s="65">
+      <c r="T45" s="57">
         <v>0</v>
       </c>
-      <c r="U45" s="65">
+      <c r="U45" s="57">
         <v>1</v>
       </c>
-      <c r="V45" s="65">
+      <c r="V45" s="57">
         <v>2</v>
       </c>
-      <c r="W45" s="65">
+      <c r="W45" s="57">
         <v>3</v>
       </c>
-      <c r="X45" s="66">
+      <c r="X45" s="58">
         <v>4</v>
       </c>
-      <c r="Y45" s="66">
+      <c r="Y45" s="58">
         <v>5</v>
       </c>
-      <c r="Z45" s="66">
+      <c r="Z45" s="58">
         <v>6</v>
       </c>
-      <c r="AA45" s="66">
+      <c r="AA45" s="58">
         <v>7</v>
       </c>
-      <c r="AB45" s="65">
+      <c r="AB45" s="57">
         <v>0</v>
       </c>
-      <c r="AC45" s="65">
+      <c r="AC45" s="57">
         <v>1</v>
       </c>
-      <c r="AD45" s="65">
+      <c r="AD45" s="57">
         <v>2</v>
       </c>
-      <c r="AE45" s="65">
+      <c r="AE45" s="57">
         <v>3</v>
       </c>
-      <c r="AF45" s="66">
+      <c r="AF45" s="58">
         <v>4</v>
       </c>
-      <c r="AG45" s="66">
+      <c r="AG45" s="58">
         <v>5</v>
       </c>
-      <c r="AH45" s="66">
+      <c r="AH45" s="58">
         <v>6</v>
       </c>
-      <c r="AI45" s="66">
+      <c r="AI45" s="58">
         <v>7</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" t="s" s="33">
+      <c r="C46" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="67">
+      <c r="D46" s="59">
         <v>0</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E46" s="59">
         <v>1</v>
       </c>
-      <c r="F46" s="67">
+      <c r="F46" s="59">
         <v>2</v>
       </c>
-      <c r="G46" s="67">
+      <c r="G46" s="59">
         <v>3</v>
       </c>
-      <c r="H46" s="67">
+      <c r="H46" s="59">
         <v>4</v>
       </c>
-      <c r="I46" s="67">
+      <c r="I46" s="59">
         <v>5</v>
       </c>
-      <c r="J46" s="67">
+      <c r="J46" s="59">
         <v>6</v>
       </c>
-      <c r="K46" s="67">
+      <c r="K46" s="59">
         <v>7</v>
       </c>
-      <c r="L46" s="67">
+      <c r="L46" s="59">
         <v>8</v>
       </c>
-      <c r="M46" s="67">
+      <c r="M46" s="59">
         <v>9</v>
       </c>
-      <c r="N46" s="67">
+      <c r="N46" s="59">
         <v>10</v>
       </c>
-      <c r="O46" s="67">
+      <c r="O46" s="59">
         <v>11</v>
       </c>
-      <c r="P46" s="67">
+      <c r="P46" s="59">
         <v>12</v>
       </c>
-      <c r="Q46" s="67">
+      <c r="Q46" s="59">
         <v>13</v>
       </c>
-      <c r="R46" s="67">
+      <c r="R46" s="59">
         <v>14</v>
       </c>
-      <c r="S46" s="67">
+      <c r="S46" s="59">
         <v>15</v>
       </c>
-      <c r="T46" s="67">
+      <c r="T46" s="59">
         <v>16</v>
       </c>
-      <c r="U46" s="67">
+      <c r="U46" s="59">
         <v>17</v>
       </c>
-      <c r="V46" s="67">
+      <c r="V46" s="59">
         <v>18</v>
       </c>
-      <c r="W46" s="67">
+      <c r="W46" s="59">
         <v>19</v>
       </c>
-      <c r="X46" s="67">
+      <c r="X46" s="59">
         <v>20</v>
       </c>
-      <c r="Y46" s="67">
+      <c r="Y46" s="59">
         <v>21</v>
       </c>
-      <c r="Z46" s="67">
+      <c r="Z46" s="59">
         <v>22</v>
       </c>
-      <c r="AA46" s="67">
+      <c r="AA46" s="59">
         <v>23</v>
       </c>
-      <c r="AB46" s="67">
+      <c r="AB46" s="59">
         <v>24</v>
       </c>
-      <c r="AC46" s="67">
+      <c r="AC46" s="59">
         <v>25</v>
       </c>
-      <c r="AD46" s="67">
+      <c r="AD46" s="59">
         <v>26</v>
       </c>
-      <c r="AE46" s="67">
+      <c r="AE46" s="59">
         <v>27</v>
       </c>
-      <c r="AF46" s="67">
+      <c r="AF46" s="59">
         <v>28</v>
       </c>
-      <c r="AG46" s="67">
+      <c r="AG46" s="59">
         <v>29</v>
       </c>
-      <c r="AH46" s="67">
+      <c r="AH46" s="59">
         <v>30</v>
       </c>
-      <c r="AI46" s="67">
+      <c r="AI46" s="59">
         <v>31</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -5095,7 +4980,7 @@
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -5107,7 +4992,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" t="s" s="27">
+      <c r="L48" s="27" t="s">
         <v>58</v>
       </c>
       <c r="M48" s="22">
@@ -5136,7 +5021,7 @@
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -5148,7 +5033,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" t="s" s="27">
+      <c r="L49" s="27" t="s">
         <v>59</v>
       </c>
       <c r="M49" s="22">
@@ -5177,7 +5062,7 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -5189,7 +5074,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" t="s" s="27">
+      <c r="L50" s="27" t="s">
         <v>60</v>
       </c>
       <c r="M50" s="22">
@@ -5219,7 +5104,7 @@
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -5256,7 +5141,7 @@
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -5267,27 +5152,27 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="58"/>
-      <c r="L52" t="s" s="59">
+      <c r="K52" s="56"/>
+      <c r="L52" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="61"/>
-      <c r="T52" t="s" s="59">
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="102"/>
+      <c r="T52" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="U52" s="60"/>
-      <c r="V52" s="60"/>
-      <c r="W52" s="60"/>
-      <c r="X52" s="60"/>
-      <c r="Y52" s="60"/>
-      <c r="Z52" s="60"/>
-      <c r="AA52" s="61"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="101"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="101"/>
+      <c r="AA52" s="102"/>
       <c r="AB52" s="14"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
@@ -5297,7 +5182,7 @@
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -5308,31 +5193,31 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="58"/>
-      <c r="L53" t="s" s="62">
+      <c r="K53" s="56"/>
+      <c r="L53" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="64"/>
-      <c r="P53" t="s" s="62">
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="63"/>
-      <c r="S53" s="64"/>
-      <c r="T53" t="s" s="62">
+      <c r="Q53" s="98"/>
+      <c r="R53" s="98"/>
+      <c r="S53" s="99"/>
+      <c r="T53" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="U53" s="63"/>
-      <c r="V53" s="63"/>
-      <c r="W53" s="64"/>
-      <c r="X53" t="s" s="62">
+      <c r="U53" s="98"/>
+      <c r="V53" s="98"/>
+      <c r="W53" s="99"/>
+      <c r="X53" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="Y53" s="63"/>
-      <c r="Z53" s="63"/>
-      <c r="AA53" s="64"/>
+      <c r="Y53" s="98"/>
+      <c r="Z53" s="98"/>
+      <c r="AA53" s="99"/>
       <c r="AB53" s="14"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
@@ -5342,7 +5227,7 @@
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -5353,53 +5238,53 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="65">
+      <c r="K54" s="60"/>
+      <c r="L54" s="57">
         <v>0</v>
       </c>
-      <c r="M54" s="65">
+      <c r="M54" s="57">
         <v>1</v>
       </c>
-      <c r="N54" s="65">
+      <c r="N54" s="57">
         <v>2</v>
       </c>
-      <c r="O54" s="65">
+      <c r="O54" s="57">
         <v>3</v>
       </c>
-      <c r="P54" s="66">
+      <c r="P54" s="58">
         <v>4</v>
       </c>
-      <c r="Q54" s="66">
+      <c r="Q54" s="58">
         <v>5</v>
       </c>
-      <c r="R54" s="66">
+      <c r="R54" s="58">
         <v>6</v>
       </c>
-      <c r="S54" s="66">
+      <c r="S54" s="58">
         <v>7</v>
       </c>
-      <c r="T54" s="65">
+      <c r="T54" s="57">
         <v>0</v>
       </c>
-      <c r="U54" s="65">
+      <c r="U54" s="57">
         <v>1</v>
       </c>
-      <c r="V54" s="65">
+      <c r="V54" s="57">
         <v>2</v>
       </c>
-      <c r="W54" s="65">
+      <c r="W54" s="57">
         <v>3</v>
       </c>
-      <c r="X54" s="66">
+      <c r="X54" s="58">
         <v>4</v>
       </c>
-      <c r="Y54" s="66">
+      <c r="Y54" s="58">
         <v>5</v>
       </c>
-      <c r="Z54" s="66">
+      <c r="Z54" s="58">
         <v>6</v>
       </c>
-      <c r="AA54" s="66">
+      <c r="AA54" s="58">
         <v>7</v>
       </c>
       <c r="AB54" s="40"/>
@@ -5411,7 +5296,7 @@
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -5423,52 +5308,52 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="67">
+      <c r="L55" s="59">
         <v>8</v>
       </c>
-      <c r="M55" s="67">
+      <c r="M55" s="59">
         <v>9</v>
       </c>
-      <c r="N55" s="67">
+      <c r="N55" s="59">
         <v>10</v>
       </c>
-      <c r="O55" s="67">
+      <c r="O55" s="59">
         <v>11</v>
       </c>
-      <c r="P55" s="67">
+      <c r="P55" s="59">
         <v>12</v>
       </c>
-      <c r="Q55" s="69">
+      <c r="Q55" s="61">
         <v>13</v>
       </c>
-      <c r="R55" s="70">
+      <c r="R55" s="62">
         <v>14</v>
       </c>
-      <c r="S55" s="70">
+      <c r="S55" s="62">
         <v>15</v>
       </c>
-      <c r="T55" s="70">
+      <c r="T55" s="62">
         <v>16</v>
       </c>
-      <c r="U55" s="70">
+      <c r="U55" s="62">
         <v>17</v>
       </c>
-      <c r="V55" s="70">
+      <c r="V55" s="62">
         <v>18</v>
       </c>
-      <c r="W55" s="70">
+      <c r="W55" s="62">
         <v>19</v>
       </c>
-      <c r="X55" s="70">
+      <c r="X55" s="62">
         <v>20</v>
       </c>
-      <c r="Y55" s="70">
+      <c r="Y55" s="62">
         <v>21</v>
       </c>
-      <c r="Z55" s="71">
+      <c r="Z55" s="63">
         <v>22</v>
       </c>
-      <c r="AA55" s="67">
+      <c r="AA55" s="59">
         <v>23</v>
       </c>
       <c r="AB55" s="6"/>
@@ -5480,7 +5365,7 @@
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -5517,7 +5402,7 @@
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
     </row>
-    <row r="57" ht="15" customHeight="1">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -5554,7 +5439,7 @@
       <c r="AH57" s="6"/>
       <c r="AI57" s="6"/>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -5566,7 +5451,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" t="s" s="27">
+      <c r="L58" s="27" t="s">
         <v>61</v>
       </c>
       <c r="M58" s="6"/>
@@ -5593,7 +5478,7 @@
       <c r="AH58" s="6"/>
       <c r="AI58" s="6"/>
     </row>
-    <row r="59" ht="15" customHeight="1">
+    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -5605,13 +5490,13 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" t="s" s="27">
+      <c r="L59" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="M59" t="s" s="27">
+      <c r="M59" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="N59" t="s" s="27">
+      <c r="N59" s="27" t="s">
         <v>64</v>
       </c>
       <c r="O59" s="6"/>
@@ -5636,7 +5521,7 @@
       <c r="AH59" s="6"/>
       <c r="AI59" s="6"/>
     </row>
-    <row r="60" ht="15" customHeight="1">
+    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -5648,7 +5533,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" t="s" s="27">
+      <c r="L60" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M60" s="6"/>
@@ -5677,6 +5562,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AB43:AI43"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="T52:AA52"/>
     <mergeCell ref="L27:O27"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="P53:S53"/>
@@ -5693,16 +5585,9 @@
     <mergeCell ref="D43:K43"/>
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="D44:G44"/>
-    <mergeCell ref="X53:AA53"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="T52:AA52"/>
-    <mergeCell ref="AB43:AI43"/>
-    <mergeCell ref="T27:W27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5710,63 +5595,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="72" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="72" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="72" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="72" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="72" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="72" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="72" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="72" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="72" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="72" customWidth="1"/>
-    <col min="12" max="12" width="8.85156" style="72" customWidth="1"/>
-    <col min="13" max="256" width="8.85156" style="72" customWidth="1"/>
+    <col min="1" max="256" width="8.85546875" style="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" t="s" s="73">
+      <c r="B1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="6"/>
-      <c r="F1" t="s" s="73">
+      <c r="F1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="74"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" t="s" s="75">
+      <c r="B2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s" s="75">
+      <c r="C2" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="6"/>
-      <c r="F2" t="s" s="75">
+      <c r="F2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s" s="75">
+      <c r="G2" s="67" t="s">
         <v>69</v>
       </c>
       <c r="H2" s="6"/>
@@ -5775,997 +5648,997 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="77">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s" s="78">
+      <c r="B3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s" s="79">
+      <c r="C3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" t="s" s="78">
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s" s="81">
+      <c r="G3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="78">
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104"/>
+      <c r="B4" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="73">
         <v>-3</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="83"/>
-      <c r="F4" t="s" s="84">
+      <c r="D4" s="71"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s" s="85">
+      <c r="G4" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="82">
-        <f>C4+1</f>
+      <c r="H4" s="77"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="73">
+        <f t="shared" ref="C5:C20" si="0">C4+1</f>
         <v>-2</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="88"/>
-      <c r="G5" t="s" s="85">
+      <c r="D5" s="71"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="82">
-        <f>C5+1</f>
+      <c r="H5" s="77"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="104"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="73">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="89"/>
-      <c r="G6" t="s" s="90">
+      <c r="D6" s="71"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" t="s" s="91">
+      <c r="H6" s="77"/>
+      <c r="I6" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="82">
-        <f>C6+1</f>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="73">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" t="s" s="91">
+      <c r="D7" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="92"/>
-      <c r="G7" t="s" s="93">
+      <c r="E7" s="71"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s" s="78">
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="82">
-        <f>C7+1</f>
+      <c r="C8" s="73">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="91">
+      <c r="D8" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="82">
+      <c r="E8" s="71"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="73">
         <v>0</v>
       </c>
-      <c r="H8" t="s" s="91">
+      <c r="H8" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I8" t="s" s="91">
+      <c r="I8" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="82">
-        <f>C8+1</f>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="104"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="73">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" t="s" s="91">
+      <c r="D9" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="82">
-        <f>G8+1</f>
+      <c r="E9" s="71"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="73">
+        <f t="shared" ref="G9:G19" si="1">G8+1</f>
         <v>1</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" t="s" s="91">
+      <c r="H9" s="71"/>
+      <c r="I9" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="82">
-        <f>C9+1</f>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="73">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="91">
+      <c r="D10" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="82">
-        <f>G9+1</f>
+      <c r="E10" s="71"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="73">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" t="s" s="91">
+      <c r="H10" s="71"/>
+      <c r="I10" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="82">
-        <f>C10+1</f>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="73">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="91">
+      <c r="D11" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" t="s" s="78">
+      <c r="E11" s="71"/>
+      <c r="F11" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="82">
-        <f>G10+1</f>
+      <c r="G11" s="73">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s" s="78">
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="104"/>
+      <c r="B12" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="82">
-        <f>C11+1</f>
+      <c r="C12" s="73">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="91">
+      <c r="D12" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="82">
-        <f>G11+1</f>
+      <c r="E12" s="71"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="73">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="82">
-        <f>C12+1</f>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="104"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="73">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" t="s" s="91">
+      <c r="D13" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="82">
-        <f>G12+1</f>
+      <c r="E13" s="71"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="73">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H13" t="s" s="91">
+      <c r="H13" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="82">
-        <f>C13+1</f>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="73">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="91">
+      <c r="D14" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="82">
-        <f>G13+1</f>
+      <c r="E14" s="71"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="73">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="82">
-        <f>C14+1</f>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="73">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" t="s" s="91">
+      <c r="D15" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" t="s" s="78">
+      <c r="E15" s="71"/>
+      <c r="F15" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="82">
-        <f>G14+1</f>
+      <c r="G15" s="73">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s" s="78">
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="104"/>
+      <c r="B16" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="82">
-        <f>C15+1</f>
+      <c r="C16" s="73">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" t="s" s="91">
+      <c r="D16" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="82">
-        <f>G15+1</f>
+      <c r="E16" s="71"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="73">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="82">
-        <f>C16+1</f>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="73">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" t="s" s="91">
+      <c r="D17" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="82">
-        <f>G16+1</f>
+      <c r="E17" s="71"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="73">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="82">
-        <f>C17+1</f>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="73">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="91">
+      <c r="D18" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="82">
-        <f>G17+1</f>
+      <c r="E18" s="71"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="73">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="82">
-        <f>C18+1</f>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="73">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" t="s" s="91">
+      <c r="D19" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" t="s" s="78">
+      <c r="E19" s="71"/>
+      <c r="F19" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="82">
-        <f>G18+1</f>
+      <c r="G19" s="73">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-    </row>
-    <row r="20" ht="19" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s" s="78">
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="104"/>
+      <c r="B20" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="82">
-        <f>C19+1</f>
+      <c r="C20" s="73">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" t="s" s="91">
+      <c r="D20" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="87"/>
-      <c r="G20" t="s" s="79">
+      <c r="E20" s="71"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="87"/>
-      <c r="C21" t="s" s="79">
+      <c r="H20" s="85"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" t="s" s="78">
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="73">
         <v>251</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s" s="78">
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="73">
         <f>C20+(4*30)+(4*29)</f>
         <v>249</v>
       </c>
-      <c r="D22" t="s" s="91">
+      <c r="D22" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="82">
-        <f>G21+1</f>
+      <c r="E22" s="71"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="73">
+        <f t="shared" ref="G22:G29" si="2">G21+1</f>
         <v>252</v>
       </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="82">
-        <f>C22+1</f>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="104"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="73">
+        <f t="shared" ref="C23:C31" si="3">C22+1</f>
         <v>250</v>
       </c>
-      <c r="D23" t="s" s="91">
+      <c r="D23" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="82">
-        <f>G22+1</f>
+      <c r="E23" s="71"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="73">
+        <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="H23" t="s" s="91">
+      <c r="H23" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="82">
-        <f>C23+1</f>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="104"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="73">
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="D24" t="s" s="91">
+      <c r="D24" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="82">
-        <f>G23+1</f>
+      <c r="E24" s="71"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="73">
+        <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="82">
-        <f>C24+1</f>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="104"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="73">
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="D25" t="s" s="91">
+      <c r="D25" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" t="s" s="78">
+      <c r="E25" s="71"/>
+      <c r="F25" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="82">
-        <f>G24+1</f>
+      <c r="G25" s="73">
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="82">
-        <f>C25+1</f>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="104"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="73">
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="D26" t="s" s="91">
+      <c r="D26" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="82">
-        <f>G25+1</f>
+      <c r="E26" s="71"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="73">
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="82">
-        <f>C26+1</f>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="104"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="73">
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="82">
-        <f>G26+1</f>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="73">
+        <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="82">
-        <f>C27+1</f>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="104"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="73">
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="82">
-        <f>G27+1</f>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="73">
+        <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="82">
-        <f>C28+1</f>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="104"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="73">
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" t="s" s="78">
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="82">
-        <f>G28+1</f>
+      <c r="G29" s="73">
+        <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="H29" t="s" s="95">
+      <c r="H29" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" t="s" s="78">
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="104"/>
+      <c r="B30" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="82">
-        <f>C29+1</f>
+      <c r="C30" s="73">
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" t="s" s="78">
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="73">
         <f>G29+23</f>
         <v>282</v>
       </c>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="96">
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="B31" t="s" s="78">
+      <c r="B31" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="82">
-        <f>C30+1</f>
+      <c r="C31" s="73">
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" t="s" s="78">
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="73">
         <f>G30+4</f>
         <v>286</v>
       </c>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" t="s" s="78">
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="104"/>
+      <c r="B32" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="82">
+      <c r="C32" s="73">
         <f>C31+4</f>
         <v>262</v>
       </c>
-      <c r="D32" t="s" s="98">
+      <c r="D32" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="99"/>
-      <c r="F32" t="s" s="78">
+      <c r="E32" s="89"/>
+      <c r="F32" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="82">
+      <c r="G32" s="73">
         <f>G31+4</f>
         <v>290</v>
       </c>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s" s="78">
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="104"/>
+      <c r="B33" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="73">
         <f>C32+8</f>
         <v>270</v>
       </c>
-      <c r="D33" s="99"/>
-      <c r="E33" t="s" s="98">
+      <c r="D33" s="89"/>
+      <c r="E33" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="87"/>
-      <c r="G33" s="82">
+      <c r="F33" s="78"/>
+      <c r="G33" s="73">
         <f>G32+1</f>
         <v>291</v>
       </c>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s" s="78">
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="104"/>
+      <c r="B34" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="73">
         <f>C33+4</f>
         <v>274</v>
       </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="82">
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="73">
         <f>G33+1</f>
         <v>292</v>
       </c>
-      <c r="H34" t="s" s="100">
+      <c r="H34" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="I34" t="s" s="100">
+      <c r="I34" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" t="s" s="78">
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="104"/>
+      <c r="B35" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="73">
         <f>C34+4</f>
         <v>278</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="97"/>
-      <c r="I35" t="s" s="98">
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="82">
-        <f>C35+1</f>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="104"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="73">
+        <f t="shared" ref="C36:C47" si="4">C35+1</f>
         <v>279</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="82">
-        <f>C36+1</f>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="104"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="73">
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="82">
-        <f>C37+1</f>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="104"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="73">
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="D38" t="s" s="100">
+      <c r="D38" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" t="s" s="78">
+      <c r="E38" s="87"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="104"/>
+      <c r="B39" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="82">
-        <f>C38+1</f>
+      <c r="C39" s="73">
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="D39" t="s" s="100">
+      <c r="D39" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="97"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="82">
-        <f>C39+1</f>
+      <c r="E39" s="87"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="104"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="73">
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
-      <c r="D40" t="s" s="100">
+      <c r="D40" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="97"/>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="82">
-        <f>C40+1</f>
+      <c r="E40" s="87"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="104"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="73">
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
-      <c r="D41" t="s" s="100">
+      <c r="D41" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="82">
-        <f>C41+1</f>
+      <c r="E41" s="87"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="104"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="73">
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="D42" t="s" s="100">
+      <c r="D42" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="97"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" t="s" s="78">
+      <c r="E42" s="87"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="104"/>
+      <c r="B43" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="82">
-        <f>C42+1</f>
+      <c r="C43" s="73">
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
-      <c r="D43" t="s" s="100">
+      <c r="D43" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="97"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="82">
-        <f>C43+1</f>
+      <c r="E43" s="87"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="104"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="73">
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
-      <c r="D44" t="s" s="100">
+      <c r="D44" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="97"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="82">
-        <f>C44+1</f>
+      <c r="E44" s="87"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="104"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="73">
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="D45" t="s" s="100">
+      <c r="D45" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="82">
-        <f>C45+1</f>
+      <c r="E45" s="87"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="104"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="73">
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="D46" t="s" s="100">
+      <c r="D46" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="97"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" t="s" s="78">
+      <c r="E46" s="87"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="104"/>
+      <c r="B47" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="82">
-        <f>C46+1</f>
+      <c r="C47" s="73">
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="D47" t="s" s="100">
+      <c r="D47" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="97"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="97"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6773,7 +6646,7 @@
     <mergeCell ref="A3:A30"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6782,61 +6655,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="102" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="102" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="102" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="102" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="102" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="102" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="102" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="102" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="102" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="102" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="102" customWidth="1"/>
-    <col min="12" max="256" width="8.85156" style="102" customWidth="1"/>
+    <col min="1" max="256" width="8.85546875" style="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" t="s" s="73">
+      <c r="B1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="6"/>
-      <c r="F1" t="s" s="73">
+      <c r="F1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="74"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" t="s" s="75">
+      <c r="B2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s" s="75">
+      <c r="C2" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="6"/>
-      <c r="F2" t="s" s="75">
+      <c r="F2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s" s="75">
+      <c r="G2" s="67" t="s">
         <v>69</v>
       </c>
       <c r="H2" s="6"/>
@@ -6844,1001 +6706,1001 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="77">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s" s="78">
+      <c r="B3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s" s="79">
+      <c r="C3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" t="s" s="78">
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s" s="81">
+      <c r="G3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="78">
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104"/>
+      <c r="B4" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="73">
         <v>-3</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="83"/>
-      <c r="F4" t="s" s="84">
+      <c r="D4" s="71"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s" s="85">
+      <c r="G4" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="82">
-        <f>C4+1</f>
+      <c r="H4" s="77"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="73">
+        <f t="shared" ref="C5:C20" si="0">C4+1</f>
         <v>-2</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="88"/>
-      <c r="G5" t="s" s="85">
+      <c r="D5" s="71"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="82">
-        <f>C5+1</f>
+      <c r="H5" s="77"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="104"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="73">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="89"/>
-      <c r="G6" t="s" s="90">
+      <c r="D6" s="71"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" t="s" s="91">
+      <c r="H6" s="77"/>
+      <c r="I6" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="82">
-        <f>C6+1</f>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="73">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" t="s" s="91">
+      <c r="D7" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="92"/>
-      <c r="G7" t="s" s="93">
+      <c r="E7" s="71"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s" s="78">
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="82">
-        <f>C7+1</f>
+      <c r="C8" s="73">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="91">
+      <c r="D8" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="82">
+      <c r="E8" s="71"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="73">
         <v>0</v>
       </c>
-      <c r="H8" t="s" s="91">
+      <c r="H8" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I8" t="s" s="91">
+      <c r="I8" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="82">
-        <f>C8+1</f>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="104"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="73">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" t="s" s="91">
+      <c r="D9" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="82">
-        <f>G8+1</f>
+      <c r="E9" s="71"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="73">
+        <f t="shared" ref="G9:G19" si="1">G8+1</f>
         <v>1</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" t="s" s="91">
+      <c r="H9" s="71"/>
+      <c r="I9" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="82">
-        <f>C9+1</f>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="73">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="91">
+      <c r="D10" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="82">
-        <f>G9+1</f>
+      <c r="E10" s="71"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="73">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" t="s" s="91">
+      <c r="H10" s="71"/>
+      <c r="I10" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="82">
-        <f>C10+1</f>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="73">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="91">
+      <c r="D11" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" t="s" s="78">
+      <c r="E11" s="71"/>
+      <c r="F11" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="82">
-        <f>G10+1</f>
+      <c r="G11" s="73">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s" s="78">
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="104"/>
+      <c r="B12" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="82">
-        <f>C11+1</f>
+      <c r="C12" s="73">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="91">
+      <c r="D12" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="82">
-        <f>G11+1</f>
+      <c r="E12" s="71"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="73">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="82">
-        <f>C12+1</f>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="104"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="73">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" t="s" s="91">
+      <c r="D13" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="82">
-        <f>G12+1</f>
+      <c r="E13" s="71"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="73">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H13" t="s" s="91">
+      <c r="H13" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="82">
-        <f>C13+1</f>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="73">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="91">
+      <c r="D14" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="82">
-        <f>G13+1</f>
+      <c r="E14" s="71"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="73">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="82">
-        <f>C14+1</f>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="73">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" t="s" s="91">
+      <c r="D15" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" t="s" s="78">
+      <c r="E15" s="71"/>
+      <c r="F15" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="82">
-        <f>G14+1</f>
+      <c r="G15" s="73">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s" s="78">
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="104"/>
+      <c r="B16" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="82">
-        <f>C15+1</f>
+      <c r="C16" s="73">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" t="s" s="91">
+      <c r="D16" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="82">
-        <f>G15+1</f>
+      <c r="E16" s="71"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="73">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="82">
-        <f>C16+1</f>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="73">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" t="s" s="91">
+      <c r="D17" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="82">
-        <f>G16+1</f>
+      <c r="E17" s="71"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="73">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="82">
-        <f>C17+1</f>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="73">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="91">
+      <c r="D18" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="82">
-        <f>G17+1</f>
+      <c r="E18" s="71"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="73">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="82">
-        <f>C18+1</f>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="73">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" t="s" s="91">
+      <c r="D19" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" t="s" s="78">
+      <c r="E19" s="71"/>
+      <c r="F19" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="82">
-        <f>G18+1</f>
+      <c r="G19" s="73">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-    </row>
-    <row r="20" ht="19" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s" s="78">
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="104"/>
+      <c r="B20" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="82">
-        <f>C19+1</f>
+      <c r="C20" s="73">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" t="s" s="91">
+      <c r="D20" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="87"/>
-      <c r="G20" t="s" s="79">
+      <c r="E20" s="71"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="87"/>
-      <c r="C21" t="s" s="79">
+      <c r="H20" s="85"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" t="s" s="78">
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="73">
         <v>251</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s" s="78">
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="73">
         <f>C20+(4*30)+(4*29)</f>
         <v>249</v>
       </c>
-      <c r="D22" t="s" s="91">
+      <c r="D22" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="82">
-        <f>G21+1</f>
+      <c r="E22" s="71"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="73">
+        <f t="shared" ref="G22:G29" si="2">G21+1</f>
         <v>252</v>
       </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="82">
-        <f>C22+1</f>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="104"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="73">
+        <f t="shared" ref="C23:C31" si="3">C22+1</f>
         <v>250</v>
       </c>
-      <c r="D23" t="s" s="91">
+      <c r="D23" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="82">
-        <f>G22+1</f>
+      <c r="E23" s="71"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="73">
+        <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="H23" t="s" s="91">
+      <c r="H23" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="82">
-        <f>C23+1</f>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="104"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="73">
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="D24" t="s" s="91">
+      <c r="D24" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="82">
-        <f>G23+1</f>
+      <c r="E24" s="71"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="73">
+        <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="82">
-        <f>C24+1</f>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="104"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="73">
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="D25" t="s" s="91">
+      <c r="D25" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" t="s" s="78">
+      <c r="E25" s="71"/>
+      <c r="F25" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="82">
-        <f>G24+1</f>
+      <c r="G25" s="73">
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="82">
-        <f>C25+1</f>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="104"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="73">
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="D26" t="s" s="91">
+      <c r="D26" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="82">
-        <f>G25+1</f>
+      <c r="E26" s="71"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="73">
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="82">
-        <f>C26+1</f>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="104"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="73">
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="82">
-        <f>G26+1</f>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="73">
+        <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="82">
-        <f>C27+1</f>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="104"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="73">
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="82">
-        <f>G27+1</f>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="73">
+        <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="82">
-        <f>C28+1</f>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="104"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="73">
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" t="s" s="78">
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="82">
-        <f>G28+1</f>
+      <c r="G29" s="73">
+        <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" t="s" s="78">
+      <c r="H29" s="93"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="104"/>
+      <c r="B30" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="82">
-        <f>C29+1</f>
+      <c r="C30" s="73">
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" t="s" s="78">
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="73">
         <f>G29+23</f>
         <v>282</v>
       </c>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="96">
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="B31" t="s" s="78">
+      <c r="B31" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="82">
-        <f>C30+1</f>
+      <c r="C31" s="73">
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" t="s" s="78">
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="73">
         <f>G30+4</f>
         <v>286</v>
       </c>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" t="s" s="78">
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="104"/>
+      <c r="B32" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="82">
+      <c r="C32" s="73">
         <f>C31+4</f>
         <v>262</v>
       </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" t="s" s="78">
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="82">
+      <c r="G32" s="73">
         <f>G31+4</f>
         <v>290</v>
       </c>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s" s="78">
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="104"/>
+      <c r="B33" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="73">
         <f>C32+8</f>
         <v>270</v>
       </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="82">
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="73">
         <f>G32+1</f>
         <v>291</v>
       </c>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s" s="78">
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="104"/>
+      <c r="B34" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="73">
         <f>C33+4</f>
         <v>274</v>
       </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="82">
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="73">
         <f>G33+1</f>
         <v>292</v>
       </c>
-      <c r="H34" s="97"/>
-      <c r="I34" t="s" s="100">
+      <c r="H34" s="87"/>
+      <c r="I34" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" t="s" s="78">
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="104"/>
+      <c r="B35" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="73">
         <f>C34+4</f>
         <v>278</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="82">
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="73">
         <f>G34+1</f>
         <v>293</v>
       </c>
-      <c r="H35" t="s" s="100">
+      <c r="H35" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="99"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" t="s" s="78">
+      <c r="I35" s="89"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="104"/>
+      <c r="B36" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="73">
         <f>C35+4</f>
         <v>282</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" t="s" s="78">
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="104"/>
+      <c r="B37" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="82">
+      <c r="C37" s="73">
         <f>C36+4</f>
         <v>286</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" t="s" s="78">
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="104"/>
+      <c r="B38" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="82">
+      <c r="C38" s="73">
         <f>C37+4</f>
         <v>290</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="82">
-        <f>C38+1</f>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="104"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="73">
+        <f t="shared" ref="C39:C50" si="4">C38+1</f>
         <v>291</v>
       </c>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="82">
-        <f>C39+1</f>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="104"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="73">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="82">
-        <f>C40+1</f>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="104"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="73">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="D41" t="s" s="100">
+      <c r="D41" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" t="s" s="78">
+      <c r="E41" s="87"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="104"/>
+      <c r="B42" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="82">
-        <f>C41+1</f>
+      <c r="C42" s="73">
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
-      <c r="D42" t="s" s="100">
+      <c r="D42" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="97"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="82">
-        <f>C42+1</f>
+      <c r="E42" s="87"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="104"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="73">
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
-      <c r="D43" t="s" s="100">
+      <c r="D43" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="97"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="82">
-        <f>C43+1</f>
+      <c r="E43" s="87"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="104"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="73">
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
-      <c r="D44" t="s" s="100">
+      <c r="D44" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="97"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="82">
-        <f>C44+1</f>
+      <c r="E44" s="87"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="104"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="73">
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
-      <c r="D45" t="s" s="100">
+      <c r="D45" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" t="s" s="78">
+      <c r="E45" s="87"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="104"/>
+      <c r="B46" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="82">
-        <f>C45+1</f>
+      <c r="C46" s="73">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="D46" t="s" s="100">
+      <c r="D46" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="97"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="82">
-        <f>C46+1</f>
+      <c r="E46" s="87"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="104"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="73">
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="D47" t="s" s="100">
+      <c r="D47" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="97"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="82">
-        <f>C47+1</f>
+      <c r="E47" s="87"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="104"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="73">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="D48" t="s" s="100">
+      <c r="D48" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="97"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="82">
-        <f>C48+1</f>
+      <c r="E48" s="87"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="104"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="73">
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="D49" t="s" s="100">
+      <c r="D49" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="97"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" t="s" s="78">
+      <c r="E49" s="87"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="104"/>
+      <c r="B50" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="82">
-        <f>C49+1</f>
+      <c r="C50" s="73">
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
-      <c r="D50" t="s" s="100">
+      <c r="D50" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="97"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7846,7 +7708,7 @@
     <mergeCell ref="A3:A30"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7854,61 +7716,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="104" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="104" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="104" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="104" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="104" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="104" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="104" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="104" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="104" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="104" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="104" customWidth="1"/>
-    <col min="12" max="256" width="8.85156" style="104" customWidth="1"/>
+    <col min="1" max="256" width="8.85546875" style="94" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" t="s" s="73">
+      <c r="B1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="6"/>
-      <c r="F1" t="s" s="73">
+      <c r="F1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="74"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" t="s" s="75">
+      <c r="B2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s" s="75">
+      <c r="C2" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="6"/>
-      <c r="F2" t="s" s="75">
+      <c r="F2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s" s="75">
+      <c r="G2" s="67" t="s">
         <v>69</v>
       </c>
       <c r="H2" s="6"/>
@@ -7916,1227 +7769,1218 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="77">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="B3" t="s" s="78">
+      <c r="B3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s" s="79">
+      <c r="C3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" t="s" s="78">
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s" s="81">
+      <c r="G3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="78">
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104"/>
+      <c r="B4" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="73">
         <v>-3</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="83"/>
-      <c r="F4" t="s" s="84">
+      <c r="D4" s="71"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s" s="85">
+      <c r="G4" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="82">
-        <f>C4+1</f>
+      <c r="H4" s="77"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="73">
+        <f t="shared" ref="C5:C20" si="0">C4+1</f>
         <v>-2</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="88"/>
-      <c r="G5" t="s" s="85">
+      <c r="D5" s="71"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="82">
-        <f>C5+1</f>
+      <c r="H5" s="77"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="104"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="73">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="89"/>
-      <c r="G6" t="s" s="90">
+      <c r="D6" s="71"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" t="s" s="91">
+      <c r="H6" s="77"/>
+      <c r="I6" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="82">
-        <f>C6+1</f>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="73">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" t="s" s="91">
+      <c r="D7" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="92"/>
-      <c r="G7" t="s" s="93">
+      <c r="E7" s="71"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s" s="78">
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="82">
-        <f>C7+1</f>
+      <c r="C8" s="73">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="91">
+      <c r="D8" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="82">
+      <c r="E8" s="71"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="73">
         <v>0</v>
       </c>
-      <c r="H8" t="s" s="91">
+      <c r="H8" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I8" t="s" s="91">
+      <c r="I8" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="82">
-        <f>C8+1</f>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="104"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="73">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" t="s" s="91">
+      <c r="D9" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="82">
-        <f>G8+1</f>
+      <c r="E9" s="71"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="73">
+        <f t="shared" ref="G9:G19" si="1">G8+1</f>
         <v>1</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" t="s" s="91">
+      <c r="H9" s="71"/>
+      <c r="I9" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="82">
-        <f>C9+1</f>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="73">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="91">
+      <c r="D10" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="82">
-        <f>G9+1</f>
+      <c r="E10" s="71"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="73">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" t="s" s="91">
+      <c r="H10" s="71"/>
+      <c r="I10" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="82">
-        <f>C10+1</f>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="73">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="91">
+      <c r="D11" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" t="s" s="78">
+      <c r="E11" s="71"/>
+      <c r="F11" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="82">
-        <f>G10+1</f>
+      <c r="G11" s="73">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s" s="78">
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="104"/>
+      <c r="B12" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="82">
-        <f>C11+1</f>
+      <c r="C12" s="73">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="91">
+      <c r="D12" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="82">
-        <f>G11+1</f>
+      <c r="E12" s="71"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="73">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="82">
-        <f>C12+1</f>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="104"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="73">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" t="s" s="91">
+      <c r="D13" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="82">
-        <f>G12+1</f>
+      <c r="E13" s="71"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="73">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H13" t="s" s="91">
+      <c r="H13" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="82">
-        <f>C13+1</f>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="73">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="91">
+      <c r="D14" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="82">
-        <f>G13+1</f>
+      <c r="E14" s="71"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="73">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="82">
-        <f>C14+1</f>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="73">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" t="s" s="91">
+      <c r="D15" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" t="s" s="78">
+      <c r="E15" s="71"/>
+      <c r="F15" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="82">
-        <f>G14+1</f>
+      <c r="G15" s="73">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s" s="78">
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="104"/>
+      <c r="B16" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="82">
-        <f>C15+1</f>
+      <c r="C16" s="73">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" t="s" s="91">
+      <c r="D16" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="82">
-        <f>G15+1</f>
+      <c r="E16" s="71"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="73">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="82">
-        <f>C16+1</f>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="73">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" t="s" s="91">
+      <c r="D17" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="82">
-        <f>G16+1</f>
+      <c r="E17" s="71"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="73">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="82">
-        <f>C17+1</f>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="73">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="91">
+      <c r="D18" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="82">
-        <f>G17+1</f>
+      <c r="E18" s="71"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="73">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="82">
-        <f>C18+1</f>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="73">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" t="s" s="91">
+      <c r="D19" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" t="s" s="78">
+      <c r="E19" s="71"/>
+      <c r="F19" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="82">
-        <f>G18+1</f>
+      <c r="G19" s="73">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-    </row>
-    <row r="20" ht="19" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s" s="78">
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="104"/>
+      <c r="B20" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="82">
-        <f>C19+1</f>
+      <c r="C20" s="73">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" t="s" s="91">
+      <c r="D20" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="87"/>
-      <c r="G20" t="s" s="79">
+      <c r="E20" s="71"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="87"/>
-      <c r="C21" t="s" s="79">
+      <c r="H20" s="85"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" t="s" s="78">
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="73">
         <v>251</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s" s="78">
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="73">
         <f>C20+(4*30)+(4*29)</f>
         <v>249</v>
       </c>
-      <c r="D22" t="s" s="91">
+      <c r="D22" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="82">
-        <f>G21+1</f>
+      <c r="E22" s="71"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="73">
+        <f t="shared" ref="G22:G29" si="2">G21+1</f>
         <v>252</v>
       </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="82">
-        <f>C22+1</f>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="104"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="73">
+        <f t="shared" ref="C23:C31" si="3">C22+1</f>
         <v>250</v>
       </c>
-      <c r="D23" t="s" s="91">
+      <c r="D23" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="82">
-        <f>G22+1</f>
+      <c r="E23" s="71"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="73">
+        <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="H23" t="s" s="91">
+      <c r="H23" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="82">
-        <f>C23+1</f>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="104"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="73">
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="D24" t="s" s="91">
+      <c r="D24" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="82">
-        <f>G23+1</f>
+      <c r="E24" s="71"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="73">
+        <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="82">
-        <f>C24+1</f>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="104"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="73">
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="D25" t="s" s="91">
+      <c r="D25" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" t="s" s="78">
+      <c r="E25" s="71"/>
+      <c r="F25" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="82">
-        <f>G24+1</f>
+      <c r="G25" s="73">
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="82">
-        <f>C25+1</f>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="104"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="73">
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="D26" t="s" s="91">
+      <c r="D26" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="82">
-        <f>G25+1</f>
+      <c r="E26" s="71"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="73">
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="82">
-        <f>C26+1</f>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="104"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="73">
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="82">
-        <f>G26+1</f>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="73">
+        <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="82">
-        <f>C27+1</f>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="104"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="73">
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="82">
-        <f>G27+1</f>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="73">
+        <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="82">
-        <f>C28+1</f>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="104"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="73">
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" t="s" s="78">
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="82">
-        <f>G28+1</f>
+      <c r="G29" s="73">
+        <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" t="s" s="78">
+      <c r="H29" s="93"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="104"/>
+      <c r="B30" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="82">
-        <f>C29+1</f>
+      <c r="C30" s="73">
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" t="s" s="78">
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="73">
         <f>G29+23</f>
         <v>282</v>
       </c>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="96">
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B31" t="s" s="78">
+      <c r="B31" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="82">
-        <f>C30+1</f>
+      <c r="C31" s="73">
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" t="s" s="78">
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="73">
         <f>G30+4</f>
         <v>286</v>
       </c>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" t="s" s="78">
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="104"/>
+      <c r="B32" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="82">
+      <c r="C32" s="73">
         <f>C31+8</f>
         <v>266</v>
       </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" t="s" s="78">
-        <v>94</v>
-      </c>
-      <c r="G32" s="82">
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="73">
         <f>G31+8</f>
         <v>294</v>
       </c>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s" s="78">
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="104"/>
+      <c r="B33" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="73">
         <f>C32+4</f>
         <v>270</v>
       </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" t="s" s="78">
-        <v>108</v>
-      </c>
-      <c r="G33" s="82">
-        <f>G32+8</f>
-        <v>302</v>
-      </c>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="82">
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="73">
+        <f t="shared" ref="G33:G40" si="4">G32+1</f>
+        <v>295</v>
+      </c>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="104"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="73">
         <f>C33+1</f>
         <v>271</v>
       </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="82">
-        <f>G33+1</f>
-        <v>303</v>
-      </c>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="82">
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="73">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+      <c r="H34" s="87"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="104"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="73">
         <f>C34+1</f>
         <v>272</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" t="s" s="100">
+      <c r="D35" s="87"/>
+      <c r="E35" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="87"/>
-      <c r="G35" s="82">
-        <f>G34+1</f>
-        <v>304</v>
-      </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="87"/>
-      <c r="C36" t="s" s="79">
+      <c r="F35" s="78"/>
+      <c r="G35" s="73">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="H35" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="104"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="82">
-        <f>G35+1</f>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="73">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="H36" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="104"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="73">
         <v>305</v>
       </c>
-      <c r="H36" t="s" s="100">
+      <c r="D37" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="82">
-        <v>305</v>
-      </c>
-      <c r="D37" t="s" s="100">
+      <c r="E37" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="78"/>
+      <c r="G37" s="73">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="H37" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E37" t="s" s="100">
-        <v>109</v>
-      </c>
-      <c r="F37" t="s" s="78">
-        <v>107</v>
-      </c>
-      <c r="G37" s="82">
-        <f>G36+1</f>
-        <v>306</v>
-      </c>
-      <c r="H37" t="s" s="100">
-        <v>77</v>
-      </c>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="82">
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="104"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="73">
         <f>C37+1</f>
         <v>306</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" t="s" s="100">
+      <c r="D38" s="87"/>
+      <c r="E38" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="82">
-        <f>G37+1</f>
-        <v>307</v>
-      </c>
-      <c r="H38" t="s" s="100">
+      <c r="F38" s="78"/>
+      <c r="G38" s="73">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="H38" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="82">
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="104"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="73">
         <f>C38+1</f>
         <v>307</v>
       </c>
-      <c r="D39" s="97"/>
-      <c r="E39" t="s" s="100">
+      <c r="D39" s="87"/>
+      <c r="E39" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="87"/>
-      <c r="G39" s="82">
-        <f>G38+1</f>
-        <v>308</v>
-      </c>
-      <c r="H39" t="s" s="100">
-        <v>77</v>
-      </c>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" t="s" s="78">
+      <c r="F39" s="78"/>
+      <c r="G39" s="73">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="104"/>
+      <c r="B40" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="82">
+      <c r="C40" s="73">
         <f>C39+1</f>
         <v>308</v>
       </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="82">
-        <f>G39+1</f>
-        <v>309</v>
-      </c>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" t="s" s="78">
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="73">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="104"/>
+      <c r="B41" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="82">
+      <c r="C41" s="73">
         <f>C40+4</f>
         <v>312</v>
       </c>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" t="s" s="78">
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="73">
+        <f>G40+4</f>
+        <v>306</v>
+      </c>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="104"/>
+      <c r="B42" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="82">
-        <f>G40+1</f>
-        <v>310</v>
-      </c>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" t="s" s="78">
-        <v>110</v>
-      </c>
-      <c r="C42" s="82">
+      <c r="C42" s="73">
         <f>C41+8</f>
         <v>320</v>
       </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" t="s" s="78">
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="82">
+      <c r="G42" s="73">
         <f>G41+4</f>
-        <v>314</v>
-      </c>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" t="s" s="78">
+        <v>310</v>
+      </c>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="104"/>
+      <c r="B43" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="82">
+      <c r="C43" s="73">
         <f>C42+4</f>
         <v>324</v>
       </c>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" t="s" s="78">
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" s="73">
+        <f>G42+4</f>
+        <v>314</v>
+      </c>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="104"/>
+      <c r="B44" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="82">
-        <f>G42+4</f>
-        <v>318</v>
-      </c>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" t="s" s="78">
-        <v>71</v>
-      </c>
-      <c r="C44" s="82">
+      <c r="C44" s="73">
         <f>C43+4</f>
         <v>328</v>
       </c>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" t="s" s="78">
-        <v>72</v>
-      </c>
-      <c r="G44" s="82">
-        <f>G43+4</f>
-        <v>322</v>
-      </c>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" t="s" s="78">
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="73">
+        <f>G43+1</f>
+        <v>315</v>
+      </c>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="104"/>
+      <c r="B45" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="82">
+      <c r="C45" s="73">
         <f>C44+4</f>
         <v>332</v>
       </c>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="82">
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="73">
         <f>G44+1</f>
-        <v>323</v>
-      </c>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" t="s" s="78">
+        <v>316</v>
+      </c>
+      <c r="H45" s="87"/>
+      <c r="I45" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="104"/>
+      <c r="B46" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="82">
+      <c r="C46" s="73">
         <f>C45+8</f>
         <v>340</v>
       </c>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="82">
-        <f>G45+1</f>
-        <v>324</v>
-      </c>
-      <c r="H46" s="97"/>
-      <c r="I46" t="s" s="100">
-        <v>76</v>
-      </c>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" t="s" s="78">
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="104"/>
+      <c r="B47" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="82">
+      <c r="C47" s="73">
         <f>C46+4</f>
         <v>344</v>
       </c>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="87"/>
-      <c r="G47" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" t="s" s="78">
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="73">
+        <v>363</v>
+      </c>
+      <c r="H47" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="104"/>
+      <c r="B48" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="82">
+      <c r="C48" s="73">
         <f>C47+8</f>
         <v>352</v>
       </c>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="82">
-        <v>363</v>
-      </c>
-      <c r="H48" t="s" s="100">
-        <v>77</v>
-      </c>
-      <c r="I48" t="s" s="100">
-        <v>76</v>
-      </c>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" t="s" s="78">
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="73">
+        <f t="shared" ref="G48:G54" si="5">G47+1</f>
+        <v>364</v>
+      </c>
+      <c r="H48" s="87"/>
+      <c r="I48" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="104"/>
+      <c r="B49" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="82">
+      <c r="C49" s="73">
         <f>C48+4</f>
         <v>356</v>
       </c>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="82">
-        <f>G48+1</f>
-        <v>364</v>
-      </c>
-      <c r="H49" s="97"/>
-      <c r="I49" t="s" s="100">
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="73">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="H49" s="87"/>
+      <c r="I49" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" t="s" s="78">
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="104"/>
+      <c r="B50" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="82">
+      <c r="C50" s="73">
         <f>C49+4</f>
         <v>360</v>
       </c>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="82">
-        <f>G49+1</f>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="73">
+        <f t="shared" si="5"/>
+        <v>366</v>
+      </c>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="104"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="73">
+        <f t="shared" ref="C51:C58" si="6">C50+1</f>
+        <v>361</v>
+      </c>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="73">
+        <f t="shared" si="5"/>
+        <v>367</v>
+      </c>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="104"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="73">
+        <f t="shared" si="6"/>
+        <v>362</v>
+      </c>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="73">
+        <f t="shared" si="5"/>
+        <v>368</v>
+      </c>
+      <c r="H52" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="104"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="73">
+        <f t="shared" si="6"/>
+        <v>363</v>
+      </c>
+      <c r="D53" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="87"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="73">
+        <f t="shared" si="5"/>
+        <v>369</v>
+      </c>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="87"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="104"/>
+      <c r="B54" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="73">
+        <f t="shared" si="6"/>
+        <v>364</v>
+      </c>
+      <c r="D54" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="87"/>
+      <c r="F54" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="73">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="104"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="73">
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="H50" s="97"/>
-      <c r="I50" t="s" s="100">
-        <v>78</v>
-      </c>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="82">
-        <f>C50+1</f>
-        <v>361</v>
-      </c>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" t="s" s="78">
-        <v>80</v>
-      </c>
-      <c r="G51" s="82">
-        <f>G50+1</f>
+      <c r="D55" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="104"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="73">
+        <f t="shared" si="6"/>
         <v>366</v>
       </c>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="82">
-        <f>C51+1</f>
-        <v>362</v>
-      </c>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="82">
-        <f>G51+1</f>
+      <c r="D56" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="87"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="104"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="73">
+        <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="82">
-        <f>C52+1</f>
-        <v>363</v>
-      </c>
-      <c r="D53" t="s" s="100">
-        <v>77</v>
-      </c>
-      <c r="E53" s="97"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="82">
-        <f>G52+1</f>
+      <c r="D57" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="87"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="104"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="73">
+        <f t="shared" si="6"/>
         <v>368</v>
       </c>
-      <c r="H53" t="s" s="100">
-        <v>82</v>
-      </c>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6"/>
-      <c r="B54" t="s" s="78">
-        <v>71</v>
-      </c>
-      <c r="C54" s="82">
-        <f>C53+1</f>
-        <v>364</v>
-      </c>
-      <c r="D54" t="s" s="100">
-        <v>77</v>
-      </c>
-      <c r="E54" s="97"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="82">
-        <f>G53+1</f>
-        <v>369</v>
-      </c>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="82">
-        <f>C54+1</f>
-        <v>365</v>
-      </c>
-      <c r="D55" t="s" s="100">
-        <v>77</v>
-      </c>
-      <c r="E55" s="97"/>
-      <c r="F55" t="s" s="78">
-        <v>84</v>
-      </c>
-      <c r="G55" s="82">
-        <f>G54+1</f>
-        <v>370</v>
-      </c>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="82">
-        <f>C55+1</f>
-        <v>366</v>
-      </c>
-      <c r="D56" t="s" s="100">
-        <v>77</v>
-      </c>
-      <c r="E56" s="97"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="82">
-        <f>C56+1</f>
-        <v>367</v>
-      </c>
-      <c r="D57" t="s" s="100">
+      <c r="D58" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="97"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="82">
-        <f>C57+1</f>
-        <v>368</v>
-      </c>
-      <c r="D58" t="s" s="100">
-        <v>79</v>
-      </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9144,7 +8988,7 @@
     <mergeCell ref="A3:A30"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Docs/Other/scratchpad.xlsx
+++ b/Docs/Other/scratchpad.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\JCAP\Docs\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unkno\Desktop\JCAP\Docs\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC72D156-A185-4A42-88B7-244E00EF092D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sandbox" sheetId="1" r:id="rId1"/>
-    <sheet name="LONG-to-LONG (Bad) - Table 1-1" sheetId="2" r:id="rId2"/>
-    <sheet name="LONG-to-LONG (Good) - Table 1-1" sheetId="3" r:id="rId3"/>
-    <sheet name="Buffer-to-buffer - Table 1-1" sheetId="4" r:id="rId4"/>
+    <sheet name="Vertical Sprite Mgmt" sheetId="5" r:id="rId2"/>
+    <sheet name="LONG-to-LONG (Bad) - Table 1-1" sheetId="2" r:id="rId3"/>
+    <sheet name="LONG-to-LONG (Good) - Table 1-1" sheetId="3" r:id="rId4"/>
+    <sheet name="Buffer-to-buffer - Table 1-1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="139">
   <si>
     <t>PASM Line</t>
   </si>
@@ -355,13 +364,97 @@
   </si>
   <si>
     <t>jmp</t>
+  </si>
+  <si>
+    <t>spyoff:</t>
+  </si>
+  <si>
+    <t>spysz = tall  ? 16 : 8</t>
+  </si>
+  <si>
+    <t>spyoff = mir ? spysz - (cursl - spypos) : cursl - spypos</t>
+  </si>
+  <si>
+    <t>spysz</t>
+  </si>
+  <si>
+    <t>spypos</t>
+  </si>
+  <si>
+    <t>spyoff</t>
+  </si>
+  <si>
+    <t>mirrored</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>cursl - spypos &lt;= spysz ?</t>
+  </si>
+  <si>
+    <t>NO: Skip sprite</t>
+  </si>
+  <si>
+    <t>SP 1 L 0</t>
+  </si>
+  <si>
+    <t>SP 1 L 1</t>
+  </si>
+  <si>
+    <t>SP 1 L 2</t>
+  </si>
+  <si>
+    <t>SP 1 L 3</t>
+  </si>
+  <si>
+    <t>SP 1 L 4</t>
+  </si>
+  <si>
+    <t>SP 1 L 5</t>
+  </si>
+  <si>
+    <t>SP 1 L 6</t>
+  </si>
+  <si>
+    <t>SP 1 L 7</t>
+  </si>
+  <si>
+    <t>SP 2 L 0</t>
+  </si>
+  <si>
+    <t>SP 2 L 1</t>
+  </si>
+  <si>
+    <t>SP 2 L 2</t>
+  </si>
+  <si>
+    <t>SP 2 L 3</t>
+  </si>
+  <si>
+    <t>SP 2 L 4</t>
+  </si>
+  <si>
+    <t>SP 2 L 5</t>
+  </si>
+  <si>
+    <t>SP 2 L 6</t>
+  </si>
+  <si>
+    <t>SP 2 L 7</t>
+  </si>
+  <si>
+    <t>NORMAL:</t>
+  </si>
+  <si>
+    <t>MIRRORED:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -414,8 +507,24 @@
       <color indexed="28"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,8 +627,50 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1264,11 +1415,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1443,6 +1699,35 @@
     <xf numFmtId="49" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1545,7 +1830,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2655,23 +2946,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2718,7 +3011,7 @@
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>162</v>
       </c>
@@ -2769,7 +3062,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>163</v>
       </c>
@@ -2818,7 +3111,7 @@
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>164</v>
       </c>
@@ -2867,7 +3160,7 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
     </row>
-    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>165</v>
       </c>
@@ -2920,7 +3213,7 @@
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
     </row>
-    <row r="6" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>166</v>
       </c>
@@ -2973,7 +3266,7 @@
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>167</v>
       </c>
@@ -3026,7 +3319,7 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>168</v>
       </c>
@@ -3075,7 +3368,7 @@
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>169</v>
       </c>
@@ -3122,7 +3415,7 @@
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>170</v>
       </c>
@@ -3169,7 +3462,7 @@
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="24"/>
@@ -3208,7 +3501,7 @@
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3546,7 @@
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>26</v>
       </c>
@@ -3302,7 +3595,7 @@
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>26</v>
       </c>
@@ -3353,7 +3646,7 @@
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>26</v>
       </c>
@@ -3404,7 +3697,7 @@
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>26</v>
       </c>
@@ -3451,7 +3744,7 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>26</v>
       </c>
@@ -3498,7 +3791,7 @@
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>26</v>
       </c>
@@ -3545,7 +3838,7 @@
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>26</v>
       </c>
@@ -3592,7 +3885,7 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="24"/>
@@ -3633,7 +3926,7 @@
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3670,7 +3963,7 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -3707,7 +4000,7 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3744,7 +4037,7 @@
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3781,7 +4074,7 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3818,7 +4111,7 @@
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="38" t="s">
@@ -3897,7 +4190,7 @@
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="38" t="s">
@@ -3946,7 +4239,7 @@
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="38" t="s">
@@ -4025,7 +4318,7 @@
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4062,7 +4355,7 @@
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4103,7 +4396,7 @@
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="47"/>
@@ -4152,7 +4445,7 @@
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="47"/>
@@ -4199,7 +4492,7 @@
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="47"/>
@@ -4246,7 +4539,7 @@
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="47"/>
@@ -4293,7 +4586,7 @@
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="47"/>
@@ -4340,7 +4633,7 @@
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="47"/>
@@ -4387,7 +4680,7 @@
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="47"/>
@@ -4434,7 +4727,7 @@
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="47"/>
@@ -4481,7 +4774,7 @@
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="47"/>
@@ -4528,7 +4821,7 @@
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -4565,7 +4858,7 @@
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -4602,7 +4895,7 @@
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
     </row>
-    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4639,7 +4932,7 @@
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
     </row>
-    <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="56"/>
@@ -4684,7 +4977,7 @@
       <c r="AH43" s="101"/>
       <c r="AI43" s="102"/>
     </row>
-    <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="56"/>
@@ -4737,7 +5030,7 @@
       <c r="AH44" s="98"/>
       <c r="AI44" s="99"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="38" t="s">
@@ -4840,7 +5133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="33" t="s">
@@ -4943,7 +5236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -4980,7 +5273,7 @@
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -5021,7 +5314,7 @@
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
     </row>
-    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -5062,7 +5355,7 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -5104,7 +5397,7 @@
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
     </row>
-    <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -5141,7 +5434,7 @@
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
     </row>
-    <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -5182,7 +5475,7 @@
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
     </row>
-    <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -5227,7 +5520,7 @@
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
     </row>
-    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -5296,7 +5589,7 @@
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
     </row>
-    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -5365,7 +5658,7 @@
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
     </row>
-    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -5402,7 +5695,7 @@
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
     </row>
-    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -5439,7 +5732,7 @@
       <c r="AH57" s="6"/>
       <c r="AI57" s="6"/>
     </row>
-    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -5478,7 +5771,7 @@
       <c r="AH58" s="6"/>
       <c r="AI58" s="6"/>
     </row>
-    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -5521,7 +5814,7 @@
       <c r="AH59" s="6"/>
       <c r="AI59" s="6"/>
     </row>
-    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -5595,7 +5888,379 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91793D44-BCD1-44CE-9C40-D1F7D97CC6C2}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="108" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" style="109" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="110">
+        <v>0</v>
+      </c>
+      <c r="D1" s="106">
+        <v>1</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="111">
+        <v>2</v>
+      </c>
+      <c r="D2" s="108">
+        <v>2</v>
+      </c>
+      <c r="E2" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="120" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="111">
+        <v>16</v>
+      </c>
+      <c r="D3" s="108">
+        <v>3</v>
+      </c>
+      <c r="E3" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="121" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="112" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="108">
+        <v>4</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="124">
+        <f>IF(B4,B3-(B1-B2),B1-B2)</f>
+        <v>-2</v>
+      </c>
+      <c r="D5" s="108">
+        <v>5</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="122" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="113" t="str">
+        <f>IF(IF((B1-B2)&lt;0, 4294967295, B1-B2)&lt;B3, "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="D6" s="108">
+        <v>6</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="108">
+        <v>7</v>
+      </c>
+      <c r="G7" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="122" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="108">
+        <v>8</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="122" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D9" s="108">
+        <v>9</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="108">
+        <v>10</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="123" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="108">
+        <v>11</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="108">
+        <v>12</v>
+      </c>
+      <c r="G12" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D13" s="108">
+        <v>13</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="108">
+        <v>14</v>
+      </c>
+      <c r="G14" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" s="108">
+        <v>15</v>
+      </c>
+      <c r="G15" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="114" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="108">
+        <v>16</v>
+      </c>
+      <c r="G16" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D17" s="108">
+        <v>17</v>
+      </c>
+      <c r="G17" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="114" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="108">
+        <v>18</v>
+      </c>
+      <c r="G18" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D19" s="108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="108">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="108">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="108">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="108">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="108">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="108">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D27" s="108">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D28" s="108">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="108">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="108">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="108">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="108">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="108">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="108">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="108">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="108">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="108">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="108">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="108">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5603,12 +6268,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="8.85546875" style="64" customWidth="1"/>
+    <col min="1" max="256" width="8.88671875" style="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="65" t="s">
         <v>66</v>
@@ -5626,7 +6291,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="67" t="s">
         <v>68</v>
@@ -5648,7 +6313,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="105" t="s">
         <v>70</v>
       </c>
@@ -5672,7 +6337,7 @@
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="104"/>
       <c r="B4" s="69" t="s">
         <v>71</v>
@@ -5694,7 +6359,7 @@
       <c r="K4" s="71"/>
       <c r="L4" s="71"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="104"/>
       <c r="B5" s="78"/>
       <c r="C5" s="73">
@@ -5713,7 +6378,7 @@
       <c r="K5" s="71"/>
       <c r="L5" s="71"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="104"/>
       <c r="B6" s="78"/>
       <c r="C6" s="73">
@@ -5734,7 +6399,7 @@
       <c r="K6" s="71"/>
       <c r="L6" s="71"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="104"/>
       <c r="B7" s="78"/>
       <c r="C7" s="73">
@@ -5755,7 +6420,7 @@
       <c r="K7" s="71"/>
       <c r="L7" s="71"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="104"/>
       <c r="B8" s="69" t="s">
         <v>71</v>
@@ -5782,7 +6447,7 @@
       <c r="K8" s="71"/>
       <c r="L8" s="71"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104"/>
       <c r="B9" s="78"/>
       <c r="C9" s="73">
@@ -5806,7 +6471,7 @@
       <c r="K9" s="71"/>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="78"/>
       <c r="C10" s="73">
@@ -5830,7 +6495,7 @@
       <c r="K10" s="71"/>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="104"/>
       <c r="B11" s="78"/>
       <c r="C11" s="73">
@@ -5854,7 +6519,7 @@
       <c r="K11" s="71"/>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="104"/>
       <c r="B12" s="69" t="s">
         <v>81</v>
@@ -5878,7 +6543,7 @@
       <c r="K12" s="71"/>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="104"/>
       <c r="B13" s="78"/>
       <c r="C13" s="73">
@@ -5902,7 +6567,7 @@
       <c r="K13" s="71"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="104"/>
       <c r="B14" s="78"/>
       <c r="C14" s="73">
@@ -5924,7 +6589,7 @@
       <c r="K14" s="71"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="104"/>
       <c r="B15" s="78"/>
       <c r="C15" s="73">
@@ -5948,7 +6613,7 @@
       <c r="K15" s="71"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="104"/>
       <c r="B16" s="69" t="s">
         <v>85</v>
@@ -5972,7 +6637,7 @@
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="104"/>
       <c r="B17" s="78"/>
       <c r="C17" s="73">
@@ -5994,7 +6659,7 @@
       <c r="K17" s="71"/>
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="104"/>
       <c r="B18" s="78"/>
       <c r="C18" s="73">
@@ -6016,7 +6681,7 @@
       <c r="K18" s="71"/>
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="104"/>
       <c r="B19" s="78"/>
       <c r="C19" s="73">
@@ -6040,7 +6705,7 @@
       <c r="K19" s="71"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="104"/>
       <c r="B20" s="69" t="s">
         <v>88</v>
@@ -6063,7 +6728,7 @@
       <c r="K20" s="71"/>
       <c r="L20" s="71"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="104"/>
       <c r="B21" s="78"/>
       <c r="C21" s="70" t="s">
@@ -6083,7 +6748,7 @@
       <c r="K21" s="71"/>
       <c r="L21" s="71"/>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="104"/>
       <c r="B22" s="69" t="s">
         <v>90</v>
@@ -6107,7 +6772,7 @@
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="104"/>
       <c r="B23" s="78"/>
       <c r="C23" s="73">
@@ -6131,7 +6796,7 @@
       <c r="K23" s="71"/>
       <c r="L23" s="71"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="104"/>
       <c r="B24" s="78"/>
       <c r="C24" s="73">
@@ -6153,7 +6818,7 @@
       <c r="K24" s="71"/>
       <c r="L24" s="71"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="104"/>
       <c r="B25" s="78"/>
       <c r="C25" s="73">
@@ -6177,7 +6842,7 @@
       <c r="K25" s="71"/>
       <c r="L25" s="71"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="104"/>
       <c r="B26" s="78"/>
       <c r="C26" s="73">
@@ -6199,7 +6864,7 @@
       <c r="K26" s="71"/>
       <c r="L26" s="71"/>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="104"/>
       <c r="B27" s="78"/>
       <c r="C27" s="73">
@@ -6219,7 +6884,7 @@
       <c r="K27" s="71"/>
       <c r="L27" s="71"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="104"/>
       <c r="B28" s="78"/>
       <c r="C28" s="73">
@@ -6239,7 +6904,7 @@
       <c r="K28" s="71"/>
       <c r="L28" s="71"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="104"/>
       <c r="B29" s="78"/>
       <c r="C29" s="73">
@@ -6263,7 +6928,7 @@
       <c r="K29" s="71"/>
       <c r="L29" s="71"/>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="104"/>
       <c r="B30" s="69" t="s">
         <v>71</v>
@@ -6287,7 +6952,7 @@
       <c r="K30" s="71"/>
       <c r="L30" s="71"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="103" t="s">
         <v>97</v>
       </c>
@@ -6313,7 +6978,7 @@
       <c r="K31" s="87"/>
       <c r="L31" s="87"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="104"/>
       <c r="B32" s="69" t="s">
         <v>100</v>
@@ -6339,7 +7004,7 @@
       <c r="K32" s="87"/>
       <c r="L32" s="87"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="104"/>
       <c r="B33" s="69" t="s">
         <v>96</v>
@@ -6363,7 +7028,7 @@
       <c r="K33" s="87"/>
       <c r="L33" s="87"/>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="104"/>
       <c r="B34" s="69" t="s">
         <v>71</v>
@@ -6389,7 +7054,7 @@
       <c r="K34" s="87"/>
       <c r="L34" s="87"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="104"/>
       <c r="B35" s="69" t="s">
         <v>71</v>
@@ -6410,7 +7075,7 @@
       <c r="K35" s="87"/>
       <c r="L35" s="87"/>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="104"/>
       <c r="B36" s="78"/>
       <c r="C36" s="73">
@@ -6427,7 +7092,7 @@
       <c r="K36" s="87"/>
       <c r="L36" s="87"/>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="104"/>
       <c r="B37" s="78"/>
       <c r="C37" s="73">
@@ -6444,7 +7109,7 @@
       <c r="K37" s="87"/>
       <c r="L37" s="87"/>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="104"/>
       <c r="B38" s="78"/>
       <c r="C38" s="73">
@@ -6463,7 +7128,7 @@
       <c r="K38" s="87"/>
       <c r="L38" s="87"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="104"/>
       <c r="B39" s="69" t="s">
         <v>71</v>
@@ -6484,7 +7149,7 @@
       <c r="K39" s="87"/>
       <c r="L39" s="87"/>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="104"/>
       <c r="B40" s="78"/>
       <c r="C40" s="73">
@@ -6503,7 +7168,7 @@
       <c r="K40" s="87"/>
       <c r="L40" s="87"/>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="104"/>
       <c r="B41" s="78"/>
       <c r="C41" s="73">
@@ -6522,7 +7187,7 @@
       <c r="K41" s="87"/>
       <c r="L41" s="87"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="104"/>
       <c r="B42" s="78"/>
       <c r="C42" s="73">
@@ -6541,7 +7206,7 @@
       <c r="K42" s="87"/>
       <c r="L42" s="87"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="104"/>
       <c r="B43" s="69" t="s">
         <v>81</v>
@@ -6562,7 +7227,7 @@
       <c r="K43" s="87"/>
       <c r="L43" s="87"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="104"/>
       <c r="B44" s="78"/>
       <c r="C44" s="73">
@@ -6581,7 +7246,7 @@
       <c r="K44" s="87"/>
       <c r="L44" s="87"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="104"/>
       <c r="B45" s="78"/>
       <c r="C45" s="73">
@@ -6600,7 +7265,7 @@
       <c r="K45" s="87"/>
       <c r="L45" s="87"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="104"/>
       <c r="B46" s="78"/>
       <c r="C46" s="73">
@@ -6619,7 +7284,7 @@
       <c r="K46" s="87"/>
       <c r="L46" s="87"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="104"/>
       <c r="B47" s="69" t="s">
         <v>85</v>
@@ -6654,8 +7319,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6663,12 +7328,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="8.85546875" style="92" customWidth="1"/>
+    <col min="1" max="256" width="8.88671875" style="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="65" t="s">
         <v>66</v>
@@ -6685,7 +7350,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="67" t="s">
         <v>68</v>
@@ -6706,7 +7371,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="105" t="s">
         <v>70</v>
       </c>
@@ -6729,7 +7394,7 @@
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="104"/>
       <c r="B4" s="69" t="s">
         <v>71</v>
@@ -6750,7 +7415,7 @@
       <c r="J4" s="71"/>
       <c r="K4" s="71"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="104"/>
       <c r="B5" s="78"/>
       <c r="C5" s="73">
@@ -6768,7 +7433,7 @@
       <c r="J5" s="71"/>
       <c r="K5" s="71"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="104"/>
       <c r="B6" s="78"/>
       <c r="C6" s="73">
@@ -6788,7 +7453,7 @@
       <c r="J6" s="71"/>
       <c r="K6" s="71"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="104"/>
       <c r="B7" s="78"/>
       <c r="C7" s="73">
@@ -6808,7 +7473,7 @@
       <c r="J7" s="71"/>
       <c r="K7" s="71"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="104"/>
       <c r="B8" s="69" t="s">
         <v>71</v>
@@ -6834,7 +7499,7 @@
       <c r="J8" s="71"/>
       <c r="K8" s="71"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104"/>
       <c r="B9" s="78"/>
       <c r="C9" s="73">
@@ -6857,7 +7522,7 @@
       <c r="J9" s="71"/>
       <c r="K9" s="71"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="78"/>
       <c r="C10" s="73">
@@ -6880,7 +7545,7 @@
       <c r="J10" s="71"/>
       <c r="K10" s="71"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="104"/>
       <c r="B11" s="78"/>
       <c r="C11" s="73">
@@ -6903,7 +7568,7 @@
       <c r="J11" s="71"/>
       <c r="K11" s="71"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="104"/>
       <c r="B12" s="69" t="s">
         <v>81</v>
@@ -6926,7 +7591,7 @@
       <c r="J12" s="71"/>
       <c r="K12" s="71"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="104"/>
       <c r="B13" s="78"/>
       <c r="C13" s="73">
@@ -6949,7 +7614,7 @@
       <c r="J13" s="71"/>
       <c r="K13" s="71"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="104"/>
       <c r="B14" s="78"/>
       <c r="C14" s="73">
@@ -6970,7 +7635,7 @@
       <c r="J14" s="71"/>
       <c r="K14" s="71"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="104"/>
       <c r="B15" s="78"/>
       <c r="C15" s="73">
@@ -6993,7 +7658,7 @@
       <c r="J15" s="71"/>
       <c r="K15" s="71"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="104"/>
       <c r="B16" s="69" t="s">
         <v>85</v>
@@ -7016,7 +7681,7 @@
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="104"/>
       <c r="B17" s="78"/>
       <c r="C17" s="73">
@@ -7037,7 +7702,7 @@
       <c r="J17" s="71"/>
       <c r="K17" s="71"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="104"/>
       <c r="B18" s="78"/>
       <c r="C18" s="73">
@@ -7058,7 +7723,7 @@
       <c r="J18" s="71"/>
       <c r="K18" s="71"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="104"/>
       <c r="B19" s="78"/>
       <c r="C19" s="73">
@@ -7081,7 +7746,7 @@
       <c r="J19" s="71"/>
       <c r="K19" s="71"/>
     </row>
-    <row r="20" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="104"/>
       <c r="B20" s="69" t="s">
         <v>88</v>
@@ -7103,7 +7768,7 @@
       <c r="J20" s="71"/>
       <c r="K20" s="71"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="104"/>
       <c r="B21" s="78"/>
       <c r="C21" s="70" t="s">
@@ -7122,7 +7787,7 @@
       <c r="J21" s="71"/>
       <c r="K21" s="71"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="104"/>
       <c r="B22" s="69" t="s">
         <v>90</v>
@@ -7145,7 +7810,7 @@
       <c r="J22" s="71"/>
       <c r="K22" s="71"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="104"/>
       <c r="B23" s="78"/>
       <c r="C23" s="73">
@@ -7168,7 +7833,7 @@
       <c r="J23" s="71"/>
       <c r="K23" s="71"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="104"/>
       <c r="B24" s="78"/>
       <c r="C24" s="73">
@@ -7189,7 +7854,7 @@
       <c r="J24" s="71"/>
       <c r="K24" s="71"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="104"/>
       <c r="B25" s="78"/>
       <c r="C25" s="73">
@@ -7212,7 +7877,7 @@
       <c r="J25" s="71"/>
       <c r="K25" s="71"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="104"/>
       <c r="B26" s="78"/>
       <c r="C26" s="73">
@@ -7233,7 +7898,7 @@
       <c r="J26" s="71"/>
       <c r="K26" s="71"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="104"/>
       <c r="B27" s="78"/>
       <c r="C27" s="73">
@@ -7252,7 +7917,7 @@
       <c r="J27" s="71"/>
       <c r="K27" s="71"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="104"/>
       <c r="B28" s="78"/>
       <c r="C28" s="73">
@@ -7271,7 +7936,7 @@
       <c r="J28" s="71"/>
       <c r="K28" s="71"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="104"/>
       <c r="B29" s="78"/>
       <c r="C29" s="73">
@@ -7292,7 +7957,7 @@
       <c r="J29" s="71"/>
       <c r="K29" s="71"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="104"/>
       <c r="B30" s="69" t="s">
         <v>71</v>
@@ -7315,7 +7980,7 @@
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="103" t="s">
         <v>97</v>
       </c>
@@ -7340,7 +8005,7 @@
       <c r="J31" s="87"/>
       <c r="K31" s="87"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="104"/>
       <c r="B32" s="69" t="s">
         <v>100</v>
@@ -7363,7 +8028,7 @@
       <c r="J32" s="87"/>
       <c r="K32" s="87"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="104"/>
       <c r="B33" s="69" t="s">
         <v>96</v>
@@ -7384,7 +8049,7 @@
       <c r="J33" s="87"/>
       <c r="K33" s="87"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="104"/>
       <c r="B34" s="69" t="s">
         <v>71</v>
@@ -7407,7 +8072,7 @@
       <c r="J34" s="87"/>
       <c r="K34" s="87"/>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="104"/>
       <c r="B35" s="69" t="s">
         <v>105</v>
@@ -7430,7 +8095,7 @@
       <c r="J35" s="87"/>
       <c r="K35" s="87"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="104"/>
       <c r="B36" s="69" t="s">
         <v>105</v>
@@ -7448,7 +8113,7 @@
       <c r="J36" s="87"/>
       <c r="K36" s="87"/>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="104"/>
       <c r="B37" s="69" t="s">
         <v>105</v>
@@ -7466,7 +8131,7 @@
       <c r="J37" s="87"/>
       <c r="K37" s="87"/>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="104"/>
       <c r="B38" s="69" t="s">
         <v>71</v>
@@ -7484,7 +8149,7 @@
       <c r="J38" s="87"/>
       <c r="K38" s="87"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="104"/>
       <c r="B39" s="78"/>
       <c r="C39" s="73">
@@ -7500,7 +8165,7 @@
       <c r="J39" s="87"/>
       <c r="K39" s="87"/>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="104"/>
       <c r="B40" s="78"/>
       <c r="C40" s="73">
@@ -7516,7 +8181,7 @@
       <c r="J40" s="87"/>
       <c r="K40" s="87"/>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="104"/>
       <c r="B41" s="78"/>
       <c r="C41" s="73">
@@ -7534,7 +8199,7 @@
       <c r="J41" s="87"/>
       <c r="K41" s="87"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="104"/>
       <c r="B42" s="69" t="s">
         <v>71</v>
@@ -7554,7 +8219,7 @@
       <c r="J42" s="87"/>
       <c r="K42" s="87"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="104"/>
       <c r="B43" s="78"/>
       <c r="C43" s="73">
@@ -7572,7 +8237,7 @@
       <c r="J43" s="87"/>
       <c r="K43" s="87"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="104"/>
       <c r="B44" s="78"/>
       <c r="C44" s="73">
@@ -7590,7 +8255,7 @@
       <c r="J44" s="87"/>
       <c r="K44" s="87"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="104"/>
       <c r="B45" s="78"/>
       <c r="C45" s="73">
@@ -7608,7 +8273,7 @@
       <c r="J45" s="87"/>
       <c r="K45" s="87"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="104"/>
       <c r="B46" s="69" t="s">
         <v>81</v>
@@ -7628,7 +8293,7 @@
       <c r="J46" s="87"/>
       <c r="K46" s="87"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="104"/>
       <c r="B47" s="78"/>
       <c r="C47" s="73">
@@ -7646,7 +8311,7 @@
       <c r="J47" s="87"/>
       <c r="K47" s="87"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="104"/>
       <c r="B48" s="78"/>
       <c r="C48" s="73">
@@ -7664,7 +8329,7 @@
       <c r="J48" s="87"/>
       <c r="K48" s="87"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="104"/>
       <c r="B49" s="78"/>
       <c r="C49" s="73">
@@ -7682,7 +8347,7 @@
       <c r="J49" s="87"/>
       <c r="K49" s="87"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="104"/>
       <c r="B50" s="69" t="s">
         <v>85</v>
@@ -7715,23 +8380,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="8.85546875" style="94" customWidth="1"/>
+    <col min="1" max="256" width="8.88671875" style="94" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="65" t="s">
         <v>66</v>
@@ -7748,7 +8413,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="67" t="s">
         <v>68</v>
@@ -7769,7 +8434,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="105" t="s">
         <v>106</v>
       </c>
@@ -7792,7 +8457,7 @@
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="104"/>
       <c r="B4" s="69" t="s">
         <v>71</v>
@@ -7813,7 +8478,7 @@
       <c r="J4" s="71"/>
       <c r="K4" s="71"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="104"/>
       <c r="B5" s="78"/>
       <c r="C5" s="73">
@@ -7831,7 +8496,7 @@
       <c r="J5" s="71"/>
       <c r="K5" s="71"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="104"/>
       <c r="B6" s="78"/>
       <c r="C6" s="73">
@@ -7851,7 +8516,7 @@
       <c r="J6" s="71"/>
       <c r="K6" s="71"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="104"/>
       <c r="B7" s="78"/>
       <c r="C7" s="73">
@@ -7871,7 +8536,7 @@
       <c r="J7" s="71"/>
       <c r="K7" s="71"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="104"/>
       <c r="B8" s="69" t="s">
         <v>71</v>
@@ -7897,7 +8562,7 @@
       <c r="J8" s="71"/>
       <c r="K8" s="71"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104"/>
       <c r="B9" s="78"/>
       <c r="C9" s="73">
@@ -7920,7 +8585,7 @@
       <c r="J9" s="71"/>
       <c r="K9" s="71"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="78"/>
       <c r="C10" s="73">
@@ -7943,7 +8608,7 @@
       <c r="J10" s="71"/>
       <c r="K10" s="71"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="104"/>
       <c r="B11" s="78"/>
       <c r="C11" s="73">
@@ -7966,7 +8631,7 @@
       <c r="J11" s="71"/>
       <c r="K11" s="71"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="104"/>
       <c r="B12" s="69" t="s">
         <v>81</v>
@@ -7989,7 +8654,7 @@
       <c r="J12" s="71"/>
       <c r="K12" s="71"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="104"/>
       <c r="B13" s="78"/>
       <c r="C13" s="73">
@@ -8012,7 +8677,7 @@
       <c r="J13" s="71"/>
       <c r="K13" s="71"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="104"/>
       <c r="B14" s="78"/>
       <c r="C14" s="73">
@@ -8033,7 +8698,7 @@
       <c r="J14" s="71"/>
       <c r="K14" s="71"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="104"/>
       <c r="B15" s="78"/>
       <c r="C15" s="73">
@@ -8056,7 +8721,7 @@
       <c r="J15" s="71"/>
       <c r="K15" s="71"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="104"/>
       <c r="B16" s="69" t="s">
         <v>85</v>
@@ -8079,7 +8744,7 @@
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="104"/>
       <c r="B17" s="78"/>
       <c r="C17" s="73">
@@ -8100,7 +8765,7 @@
       <c r="J17" s="71"/>
       <c r="K17" s="71"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="104"/>
       <c r="B18" s="78"/>
       <c r="C18" s="73">
@@ -8121,7 +8786,7 @@
       <c r="J18" s="71"/>
       <c r="K18" s="71"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="104"/>
       <c r="B19" s="78"/>
       <c r="C19" s="73">
@@ -8144,7 +8809,7 @@
       <c r="J19" s="71"/>
       <c r="K19" s="71"/>
     </row>
-    <row r="20" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="104"/>
       <c r="B20" s="69" t="s">
         <v>88</v>
@@ -8166,7 +8831,7 @@
       <c r="J20" s="71"/>
       <c r="K20" s="71"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="104"/>
       <c r="B21" s="78"/>
       <c r="C21" s="70" t="s">
@@ -8185,7 +8850,7 @@
       <c r="J21" s="71"/>
       <c r="K21" s="71"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="104"/>
       <c r="B22" s="69" t="s">
         <v>90</v>
@@ -8208,7 +8873,7 @@
       <c r="J22" s="71"/>
       <c r="K22" s="71"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="104"/>
       <c r="B23" s="78"/>
       <c r="C23" s="73">
@@ -8231,7 +8896,7 @@
       <c r="J23" s="71"/>
       <c r="K23" s="71"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="104"/>
       <c r="B24" s="78"/>
       <c r="C24" s="73">
@@ -8252,7 +8917,7 @@
       <c r="J24" s="71"/>
       <c r="K24" s="71"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="104"/>
       <c r="B25" s="78"/>
       <c r="C25" s="73">
@@ -8275,7 +8940,7 @@
       <c r="J25" s="71"/>
       <c r="K25" s="71"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="104"/>
       <c r="B26" s="78"/>
       <c r="C26" s="73">
@@ -8296,7 +8961,7 @@
       <c r="J26" s="71"/>
       <c r="K26" s="71"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="104"/>
       <c r="B27" s="78"/>
       <c r="C27" s="73">
@@ -8315,7 +8980,7 @@
       <c r="J27" s="71"/>
       <c r="K27" s="71"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="104"/>
       <c r="B28" s="78"/>
       <c r="C28" s="73">
@@ -8334,7 +8999,7 @@
       <c r="J28" s="71"/>
       <c r="K28" s="71"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="104"/>
       <c r="B29" s="78"/>
       <c r="C29" s="73">
@@ -8355,7 +9020,7 @@
       <c r="J29" s="71"/>
       <c r="K29" s="71"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="104"/>
       <c r="B30" s="69" t="s">
         <v>71</v>
@@ -8378,7 +9043,7 @@
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="103" t="s">
         <v>70</v>
       </c>
@@ -8403,7 +9068,7 @@
       <c r="J31" s="87"/>
       <c r="K31" s="87"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="104"/>
       <c r="B32" s="69" t="s">
         <v>107</v>
@@ -8426,7 +9091,7 @@
       <c r="J32" s="87"/>
       <c r="K32" s="87"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="104"/>
       <c r="B33" s="69" t="s">
         <v>72</v>
@@ -8447,7 +9112,7 @@
       <c r="J33" s="87"/>
       <c r="K33" s="87"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="104"/>
       <c r="B34" s="78"/>
       <c r="C34" s="73">
@@ -8466,7 +9131,7 @@
       <c r="J34" s="87"/>
       <c r="K34" s="87"/>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="104"/>
       <c r="B35" s="78"/>
       <c r="C35" s="73">
@@ -8489,7 +9154,7 @@
       <c r="J35" s="87"/>
       <c r="K35" s="87"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="104"/>
       <c r="B36" s="78"/>
       <c r="C36" s="70" t="s">
@@ -8511,7 +9176,7 @@
       <c r="J36" s="87"/>
       <c r="K36" s="87"/>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="104"/>
       <c r="B37" s="78"/>
       <c r="C37" s="73">
@@ -8535,7 +9200,7 @@
       <c r="J37" s="87"/>
       <c r="K37" s="87"/>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="104"/>
       <c r="B38" s="78"/>
       <c r="C38" s="73">
@@ -8558,7 +9223,7 @@
       <c r="J38" s="87"/>
       <c r="K38" s="87"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="104"/>
       <c r="B39" s="78"/>
       <c r="C39" s="73">
@@ -8579,7 +9244,7 @@
       <c r="J39" s="87"/>
       <c r="K39" s="87"/>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="104"/>
       <c r="B40" s="69" t="s">
         <v>108</v>
@@ -8602,7 +9267,7 @@
       <c r="J40" s="87"/>
       <c r="K40" s="87"/>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="104"/>
       <c r="B41" s="69" t="s">
         <v>94</v>
@@ -8625,7 +9290,7 @@
       <c r="J41" s="87"/>
       <c r="K41" s="87"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="104"/>
       <c r="B42" s="69" t="s">
         <v>110</v>
@@ -8648,7 +9313,7 @@
       <c r="J42" s="87"/>
       <c r="K42" s="87"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="104"/>
       <c r="B43" s="69" t="s">
         <v>71</v>
@@ -8671,7 +9336,7 @@
       <c r="J43" s="87"/>
       <c r="K43" s="87"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="104"/>
       <c r="B44" s="69" t="s">
         <v>71</v>
@@ -8692,7 +9357,7 @@
       <c r="J44" s="87"/>
       <c r="K44" s="87"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="104"/>
       <c r="B45" s="69" t="s">
         <v>100</v>
@@ -8715,7 +9380,7 @@
       <c r="J45" s="87"/>
       <c r="K45" s="87"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="104"/>
       <c r="B46" s="69" t="s">
         <v>110</v>
@@ -8735,7 +9400,7 @@
       <c r="J46" s="87"/>
       <c r="K46" s="87"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="104"/>
       <c r="B47" s="69" t="s">
         <v>100</v>
@@ -8759,7 +9424,7 @@
       <c r="J47" s="87"/>
       <c r="K47" s="87"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="104"/>
       <c r="B48" s="69" t="s">
         <v>96</v>
@@ -8782,7 +9447,7 @@
       <c r="J48" s="87"/>
       <c r="K48" s="87"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="104"/>
       <c r="B49" s="69" t="s">
         <v>71</v>
@@ -8805,7 +9470,7 @@
       <c r="J49" s="87"/>
       <c r="K49" s="87"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="104"/>
       <c r="B50" s="69" t="s">
         <v>71</v>
@@ -8828,7 +9493,7 @@
       <c r="J50" s="87"/>
       <c r="K50" s="87"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="104"/>
       <c r="B51" s="78"/>
       <c r="C51" s="73">
@@ -8847,7 +9512,7 @@
       <c r="J51" s="87"/>
       <c r="K51" s="87"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
       <c r="B52" s="78"/>
       <c r="C52" s="73">
@@ -8868,7 +9533,7 @@
       <c r="J52" s="87"/>
       <c r="K52" s="87"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="104"/>
       <c r="B53" s="78"/>
       <c r="C53" s="73">
@@ -8889,7 +9554,7 @@
       <c r="J53" s="87"/>
       <c r="K53" s="87"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="104"/>
       <c r="B54" s="69" t="s">
         <v>71</v>
@@ -8914,7 +9579,7 @@
       <c r="J54" s="87"/>
       <c r="K54" s="87"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="104"/>
       <c r="B55" s="78"/>
       <c r="C55" s="73">
@@ -8928,7 +9593,7 @@
       <c r="J55" s="87"/>
       <c r="K55" s="87"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="104"/>
       <c r="B56" s="78"/>
       <c r="C56" s="73">
@@ -8946,7 +9611,7 @@
       <c r="J56" s="87"/>
       <c r="K56" s="87"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="104"/>
       <c r="B57" s="78"/>
       <c r="C57" s="73">
@@ -8964,7 +9629,7 @@
       <c r="J57" s="87"/>
       <c r="K57" s="87"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="104"/>
       <c r="B58" s="78"/>
       <c r="C58" s="73">

--- a/Docs/Other/scratchpad.xlsx
+++ b/Docs/Other/scratchpad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unkno\Desktop\JCAP\Docs\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC72D156-A185-4A42-88B7-244E00EF092D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CE2A1A-80A4-4B21-83FB-A0C9144FC658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,9 +372,6 @@
     <t>spysz = tall  ? 16 : 8</t>
   </si>
   <si>
-    <t>spyoff = mir ? spysz - (cursl - spypos) : cursl - spypos</t>
-  </si>
-  <si>
     <t>spysz</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>MIRRORED:</t>
+  </si>
+  <si>
+    <t>spyoff = mir ? spysz - (cursl - spypos) - 1 : cursl - spypos</t>
   </si>
 </sst>
 </file>
@@ -5889,10 +5889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91793D44-BCD1-44CE-9C40-D1F7D97CC6C2}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5900,15 +5900,15 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" style="108" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" style="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="115" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="110">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1" s="106">
         <v>1</v>
@@ -5917,32 +5917,32 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="108">
         <v>2</v>
       </c>
       <c r="E2" s="119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" s="120" t="s">
         <v>111</v>
       </c>
       <c r="J2" s="120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="111">
         <v>16</v>
@@ -5951,269 +5951,493 @@
         <v>3</v>
       </c>
       <c r="E3" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="115" t="s">
-        <v>121</v>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>_xlfn.FLOOR.MATH(H3/8)</f>
+        <v>0</v>
       </c>
       <c r="J3" s="121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.FLOOR.MATH(K3/8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="108">
         <v>4</v>
       </c>
-      <c r="E4" s="109" t="s">
-        <v>113</v>
+      <c r="E4" s="119" t="s">
+        <v>138</v>
       </c>
       <c r="G4" s="114" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I18" si="0">_xlfn.FLOOR.MATH(H4/8)</f>
+        <v>0</v>
       </c>
       <c r="J4" s="122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L18" si="1">_xlfn.FLOOR.MATH(K4/8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="124">
-        <f>IF(B4,B3-(B1-B2),B1-B2)</f>
-        <v>-2</v>
+        <f>IF(B4,B3-(B1-B2)-1,B1-B2)</f>
+        <v>0</v>
       </c>
       <c r="D5" s="108">
         <v>5</v>
       </c>
       <c r="G5" s="114" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J5" s="122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="113" t="str">
         <f>IF(IF((B1-B2)&lt;0, 4294967295, B1-B2)&lt;B3, "YES", "NO")</f>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="D6" s="108">
         <v>6</v>
       </c>
       <c r="G6" s="114" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J6" s="122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D7" s="108">
         <v>7</v>
       </c>
       <c r="G7" s="114" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J7" s="122" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D8" s="108">
         <v>8</v>
       </c>
       <c r="G8" s="114" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J8" s="122" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D9" s="108">
         <v>9</v>
       </c>
       <c r="G9" s="114" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J9" s="122" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="108">
         <v>10</v>
       </c>
       <c r="G10" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="123" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D11" s="108">
         <v>11</v>
       </c>
       <c r="G11" s="121" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J11" s="115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D12" s="108">
         <v>12</v>
       </c>
       <c r="G12" s="122" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J12" s="114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D13" s="108">
         <v>13</v>
       </c>
       <c r="G13" s="122" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J13" s="114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D14" s="108">
         <v>14</v>
       </c>
       <c r="G14" s="122" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J14" s="114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D15" s="108">
         <v>15</v>
       </c>
       <c r="G15" s="122" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J15" s="114" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="108">
         <v>16</v>
       </c>
       <c r="G16" s="122" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J16" s="114" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D17" s="108">
         <v>17</v>
       </c>
       <c r="G17" s="122" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J17" s="114" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="108">
         <v>18</v>
       </c>
       <c r="G18" s="123" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J18" s="117" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D19" s="108">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D20" s="108">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D21" s="108">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D22" s="108">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D23" s="108">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D24" s="108">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D25" s="108">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D26" s="108">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D27" s="108">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D28" s="108">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D29" s="108">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D30" s="108">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D31" s="108">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D32" s="108">
         <v>32</v>
       </c>
